--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -19,11 +19,11 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$G$1:$G$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="578">
   <si>
     <t>alias</t>
   </si>
@@ -450,6 +450,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -549,6 +561,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -666,6 +696,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -673,6 +706,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2265,10 +2301,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2309,10 +2345,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2375,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2359,7 +2395,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2376,7 +2412,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2393,7 +2429,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2410,7 +2446,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2427,7 +2463,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2444,7 +2480,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2461,7 +2497,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2478,7 +2514,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2495,7 +2531,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2509,7 +2545,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2523,7 +2559,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2537,7 +2573,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2551,7 +2587,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2561,8 +2597,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2572,8 +2611,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2583,8 +2625,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2594,8 +2639,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2606,7 +2654,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2617,7 +2665,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2628,7 +2676,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2639,7 +2687,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2650,7 +2698,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2661,7 +2709,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2672,7 +2720,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2683,7 +2731,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2694,7 +2742,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2705,7 +2753,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2716,7 +2764,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2727,7 +2775,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2738,7 +2786,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2749,7 +2797,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2757,7 +2805,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2765,7 +2813,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2773,7 +2821,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2781,7 +2829,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2789,7 +2837,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2797,7 +2845,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2805,7 +2853,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2813,7 +2861,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2821,7 +2869,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2829,176 +2877,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3023,27 +3111,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3066,122 +3154,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3208,102 +3296,102 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -3326,1437 +3414,1437 @@
   <sheetData>
     <row r="1" spans="7:7">
       <c r="G1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="7:7">
       <c r="G2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="7:7">
       <c r="G3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="7:7">
       <c r="G4" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="7:7">
       <c r="G6" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="7:7">
       <c r="G7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="7:7">
       <c r="G8" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="7:7">
       <c r="G9" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="7:7">
       <c r="G10" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="7:7">
       <c r="G11" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="7:7">
       <c r="G12" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="7:7">
       <c r="G13" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="7:7">
       <c r="G16" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" spans="7:7">
       <c r="G100" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="7:7">
       <c r="G101" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102" spans="7:7">
       <c r="G102" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="7:7">
       <c r="G103" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="104" spans="7:7">
       <c r="G104" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="7:7">
       <c r="G105" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="106" spans="7:7">
       <c r="G106" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="7:7">
       <c r="G107" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" spans="7:7">
       <c r="G108" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109" spans="7:7">
       <c r="G109" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="110" spans="7:7">
       <c r="G110" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="7:7">
       <c r="G111" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="112" spans="7:7">
       <c r="G112" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113" spans="7:7">
       <c r="G113" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114" spans="7:7">
       <c r="G114" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="7:7">
       <c r="G115" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="116" spans="7:7">
       <c r="G116" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117" spans="7:7">
       <c r="G117" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118" spans="7:7">
       <c r="G118" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="7:7">
       <c r="G119" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="120" spans="7:7">
       <c r="G120" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="7:7">
       <c r="G121" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" spans="7:7">
       <c r="G122" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="7:7">
       <c r="G123" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="7:7">
       <c r="G124" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="7:7">
       <c r="G125" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" spans="7:7">
       <c r="G126" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" spans="7:7">
       <c r="G127" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" spans="7:7">
       <c r="G128" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="7:7">
       <c r="G129" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="7:7">
       <c r="G130" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="7:7">
       <c r="G131" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="7:7">
       <c r="G132" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="7:7">
       <c r="G133" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="7:7">
       <c r="G134" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="7:7">
       <c r="G135" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="7:7">
       <c r="G136" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" spans="7:7">
       <c r="G137" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="7:7">
       <c r="G138" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="7:7">
       <c r="G139" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="140" spans="7:7">
       <c r="G140" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" spans="7:7">
       <c r="G141" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="142" spans="7:7">
       <c r="G142" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="143" spans="7:7">
       <c r="G143" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="144" spans="7:7">
       <c r="G144" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="7:7">
       <c r="G145" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146" spans="7:7">
       <c r="G146" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="7:7">
       <c r="G147" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="148" spans="7:7">
       <c r="G148" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="7:7">
       <c r="G149" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="7:7">
       <c r="G150" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="7:7">
       <c r="G151" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="152" spans="7:7">
       <c r="G152" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="7:7">
       <c r="G153" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="7:7">
       <c r="G154" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="155" spans="7:7">
       <c r="G155" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="156" spans="7:7">
       <c r="G156" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="157" spans="7:7">
       <c r="G157" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="158" spans="7:7">
       <c r="G158" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="159" spans="7:7">
       <c r="G159" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="160" spans="7:7">
       <c r="G160" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="161" spans="7:7">
       <c r="G161" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="162" spans="7:7">
       <c r="G162" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="163" spans="7:7">
       <c r="G163" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="164" spans="7:7">
       <c r="G164" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="165" spans="7:7">
       <c r="G165" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="7:7">
       <c r="G166" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="167" spans="7:7">
       <c r="G167" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="168" spans="7:7">
       <c r="G168" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" spans="7:7">
       <c r="G169" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="170" spans="7:7">
       <c r="G170" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="171" spans="7:7">
       <c r="G171" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="172" spans="7:7">
       <c r="G172" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="173" spans="7:7">
       <c r="G173" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="174" spans="7:7">
       <c r="G174" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="7:7">
       <c r="G175" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="176" spans="7:7">
       <c r="G176" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="177" spans="7:7">
       <c r="G177" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" spans="7:7">
       <c r="G178" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="179" spans="7:7">
       <c r="G179" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="7:7">
       <c r="G180" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="181" spans="7:7">
       <c r="G181" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="182" spans="7:7">
       <c r="G182" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="183" spans="7:7">
       <c r="G183" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="7:7">
       <c r="G184" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="7:7">
       <c r="G185" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="186" spans="7:7">
       <c r="G186" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="187" spans="7:7">
       <c r="G187" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="188" spans="7:7">
       <c r="G188" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="189" spans="7:7">
       <c r="G189" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="190" spans="7:7">
       <c r="G190" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="191" spans="7:7">
       <c r="G191" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="192" spans="7:7">
       <c r="G192" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="193" spans="7:7">
       <c r="G193" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="194" spans="7:7">
       <c r="G194" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="195" spans="7:7">
       <c r="G195" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="196" spans="7:7">
       <c r="G196" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="197" spans="7:7">
       <c r="G197" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="198" spans="7:7">
       <c r="G198" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="199" spans="7:7">
       <c r="G199" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="200" spans="7:7">
       <c r="G200" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="201" spans="7:7">
       <c r="G201" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="202" spans="7:7">
       <c r="G202" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="203" spans="7:7">
       <c r="G203" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="204" spans="7:7">
       <c r="G204" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="205" spans="7:7">
       <c r="G205" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="206" spans="7:7">
       <c r="G206" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="207" spans="7:7">
       <c r="G207" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="208" spans="7:7">
       <c r="G208" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="209" spans="7:7">
       <c r="G209" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="210" spans="7:7">
       <c r="G210" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="211" spans="7:7">
       <c r="G211" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="212" spans="7:7">
       <c r="G212" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="213" spans="7:7">
       <c r="G213" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="214" spans="7:7">
       <c r="G214" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="215" spans="7:7">
       <c r="G215" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="216" spans="7:7">
       <c r="G216" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="217" spans="7:7">
       <c r="G217" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="218" spans="7:7">
       <c r="G218" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219" spans="7:7">
       <c r="G219" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="220" spans="7:7">
       <c r="G220" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="221" spans="7:7">
       <c r="G221" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="222" spans="7:7">
       <c r="G222" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="223" spans="7:7">
       <c r="G223" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="224" spans="7:7">
       <c r="G224" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="225" spans="7:7">
       <c r="G225" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="226" spans="7:7">
       <c r="G226" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="227" spans="7:7">
       <c r="G227" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="228" spans="7:7">
       <c r="G228" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="229" spans="7:7">
       <c r="G229" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="230" spans="7:7">
       <c r="G230" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="231" spans="7:7">
       <c r="G231" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232" spans="7:7">
       <c r="G232" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="233" spans="7:7">
       <c r="G233" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="234" spans="7:7">
       <c r="G234" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="235" spans="7:7">
       <c r="G235" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="236" spans="7:7">
       <c r="G236" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237" spans="7:7">
       <c r="G237" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" spans="7:7">
       <c r="G238" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="239" spans="7:7">
       <c r="G239" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="240" spans="7:7">
       <c r="G240" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="241" spans="7:7">
       <c r="G241" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="242" spans="7:7">
       <c r="G242" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="243" spans="7:7">
       <c r="G243" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="244" spans="7:7">
       <c r="G244" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="245" spans="7:7">
       <c r="G245" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="246" spans="7:7">
       <c r="G246" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="247" spans="7:7">
       <c r="G247" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="248" spans="7:7">
       <c r="G248" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="7:7">
       <c r="G249" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="250" spans="7:7">
       <c r="G250" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="251" spans="7:7">
       <c r="G251" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="252" spans="7:7">
       <c r="G252" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="253" spans="7:7">
       <c r="G253" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="254" spans="7:7">
       <c r="G254" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="255" spans="7:7">
       <c r="G255" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="256" spans="7:7">
       <c r="G256" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="257" spans="7:7">
       <c r="G257" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="258" spans="7:7">
       <c r="G258" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="259" spans="7:7">
       <c r="G259" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="260" spans="7:7">
       <c r="G260" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="261" spans="7:7">
       <c r="G261" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="262" spans="7:7">
       <c r="G262" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="263" spans="7:7">
       <c r="G263" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="264" spans="7:7">
       <c r="G264" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="265" spans="7:7">
       <c r="G265" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="266" spans="7:7">
       <c r="G266" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="267" spans="7:7">
       <c r="G267" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="268" spans="7:7">
       <c r="G268" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="269" spans="7:7">
       <c r="G269" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="270" spans="7:7">
       <c r="G270" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="271" spans="7:7">
       <c r="G271" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="272" spans="7:7">
       <c r="G272" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="273" spans="7:7">
       <c r="G273" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="274" spans="7:7">
       <c r="G274" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="275" spans="7:7">
       <c r="G275" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="276" spans="7:7">
       <c r="G276" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="277" spans="7:7">
       <c r="G277" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="278" spans="7:7">
       <c r="G278" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="279" spans="7:7">
       <c r="G279" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="280" spans="7:7">
       <c r="G280" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="281" spans="7:7">
       <c r="G281" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="282" spans="7:7">
       <c r="G282" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="283" spans="7:7">
       <c r="G283" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="284" spans="7:7">
       <c r="G284" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="285" spans="7:7">
       <c r="G285" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="286" spans="7:7">
       <c r="G286" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="287" spans="7:7">
       <c r="G287" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -1752,8 +1752,7 @@
     <t>treatment dose</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The dose of the treatment agent used. Units: 
-                    </t>
+    <t>(Recommended) The dose of the treatment agent used. (Units: picomolar)</t>
   </si>
   <si>
     <t>treatment date</t>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -99,7 +99,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$G$1:$G$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$G$1:$G$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="579">
   <si>
     <t>alias</t>
   </si>
@@ -1035,6 +1035,9 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1704,7 +1707,7 @@
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>sex</t>
@@ -3307,37 +3310,37 @@
         <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
@@ -3360,37 +3363,37 @@
         <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3408,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:G287"/>
+  <dimension ref="G1:G288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4846,6 +4849,11 @@
         <v>555</v>
       </c>
     </row>
+    <row r="288" spans="7:7">
+      <c r="G288" t="s">
+        <v>556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -1032,10 +1032,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="580">
   <si>
     <t>alias</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3298,102 +3301,102 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -3416,1442 +3419,1442 @@
   <sheetData>
     <row r="1" spans="7:7">
       <c r="G1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="7:7">
       <c r="G2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="7:7">
       <c r="G3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="7:7">
       <c r="G4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="7:7">
       <c r="G6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="7:7">
       <c r="G7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="7:7">
       <c r="G8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="7:7">
       <c r="G9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="7:7">
       <c r="G10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="7:7">
       <c r="G11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="7:7">
       <c r="G12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="7:7">
       <c r="G13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="7:7">
       <c r="G16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="7:7">
       <c r="G100" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="7:7">
       <c r="G101" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="7:7">
       <c r="G102" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="7:7">
       <c r="G103" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="7:7">
       <c r="G104" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="7:7">
       <c r="G105" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="7:7">
       <c r="G106" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="7:7">
       <c r="G107" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="7:7">
       <c r="G108" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="7:7">
       <c r="G109" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="7:7">
       <c r="G110" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="7:7">
       <c r="G111" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="7:7">
       <c r="G112" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="7:7">
       <c r="G113" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="7:7">
       <c r="G114" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="7:7">
       <c r="G115" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="7:7">
       <c r="G116" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="117" spans="7:7">
       <c r="G117" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="7:7">
       <c r="G118" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="7:7">
       <c r="G119" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="7:7">
       <c r="G120" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="7:7">
       <c r="G121" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" spans="7:7">
       <c r="G122" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="7:7">
       <c r="G123" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="7:7">
       <c r="G124" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="7:7">
       <c r="G125" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" spans="7:7">
       <c r="G126" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="7:7">
       <c r="G127" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="7:7">
       <c r="G128" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="7:7">
       <c r="G129" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="7:7">
       <c r="G130" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="7:7">
       <c r="G131" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="7:7">
       <c r="G132" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="7:7">
       <c r="G133" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="7:7">
       <c r="G134" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="7:7">
       <c r="G135" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="7:7">
       <c r="G136" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="7:7">
       <c r="G137" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="7:7">
       <c r="G138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="7:7">
       <c r="G139" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140" spans="7:7">
       <c r="G140" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="141" spans="7:7">
       <c r="G141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="142" spans="7:7">
       <c r="G142" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="143" spans="7:7">
       <c r="G143" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144" spans="7:7">
       <c r="G144" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145" spans="7:7">
       <c r="G145" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146" spans="7:7">
       <c r="G146" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147" spans="7:7">
       <c r="G147" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148" spans="7:7">
       <c r="G148" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149" spans="7:7">
       <c r="G149" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150" spans="7:7">
       <c r="G150" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="7:7">
       <c r="G151" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="7:7">
       <c r="G152" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="153" spans="7:7">
       <c r="G153" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="7:7">
       <c r="G154" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="155" spans="7:7">
       <c r="G155" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="156" spans="7:7">
       <c r="G156" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="7:7">
       <c r="G157" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="158" spans="7:7">
       <c r="G158" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="159" spans="7:7">
       <c r="G159" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="160" spans="7:7">
       <c r="G160" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="7:7">
       <c r="G161" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="162" spans="7:7">
       <c r="G162" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="163" spans="7:7">
       <c r="G163" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164" spans="7:7">
       <c r="G164" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="165" spans="7:7">
       <c r="G165" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="7:7">
       <c r="G166" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="7:7">
       <c r="G167" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168" spans="7:7">
       <c r="G168" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="169" spans="7:7">
       <c r="G169" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="170" spans="7:7">
       <c r="G170" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171" spans="7:7">
       <c r="G171" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" spans="7:7">
       <c r="G172" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173" spans="7:7">
       <c r="G173" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="7:7">
       <c r="G174" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175" spans="7:7">
       <c r="G175" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="7:7">
       <c r="G176" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="7:7">
       <c r="G177" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="178" spans="7:7">
       <c r="G178" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="7:7">
       <c r="G179" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="180" spans="7:7">
       <c r="G180" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="181" spans="7:7">
       <c r="G181" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" spans="7:7">
       <c r="G182" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="7:7">
       <c r="G183" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184" spans="7:7">
       <c r="G184" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="7:7">
       <c r="G185" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="7:7">
       <c r="G186" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="187" spans="7:7">
       <c r="G187" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="188" spans="7:7">
       <c r="G188" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="189" spans="7:7">
       <c r="G189" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="190" spans="7:7">
       <c r="G190" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="191" spans="7:7">
       <c r="G191" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="7:7">
       <c r="G192" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="193" spans="7:7">
       <c r="G193" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="194" spans="7:7">
       <c r="G194" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="195" spans="7:7">
       <c r="G195" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="196" spans="7:7">
       <c r="G196" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="7:7">
       <c r="G197" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="198" spans="7:7">
       <c r="G198" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="7:7">
       <c r="G199" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="200" spans="7:7">
       <c r="G200" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="201" spans="7:7">
       <c r="G201" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="202" spans="7:7">
       <c r="G202" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="203" spans="7:7">
       <c r="G203" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="204" spans="7:7">
       <c r="G204" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="205" spans="7:7">
       <c r="G205" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="206" spans="7:7">
       <c r="G206" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="207" spans="7:7">
       <c r="G207" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="7:7">
       <c r="G208" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="209" spans="7:7">
       <c r="G209" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="210" spans="7:7">
       <c r="G210" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="211" spans="7:7">
       <c r="G211" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="212" spans="7:7">
       <c r="G212" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="7:7">
       <c r="G213" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="214" spans="7:7">
       <c r="G214" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="215" spans="7:7">
       <c r="G215" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="216" spans="7:7">
       <c r="G216" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="217" spans="7:7">
       <c r="G217" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="218" spans="7:7">
       <c r="G218" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="219" spans="7:7">
       <c r="G219" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="220" spans="7:7">
       <c r="G220" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="221" spans="7:7">
       <c r="G221" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="7:7">
       <c r="G222" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="223" spans="7:7">
       <c r="G223" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="224" spans="7:7">
       <c r="G224" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="225" spans="7:7">
       <c r="G225" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="226" spans="7:7">
       <c r="G226" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="227" spans="7:7">
       <c r="G227" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="228" spans="7:7">
       <c r="G228" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="229" spans="7:7">
       <c r="G229" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="230" spans="7:7">
       <c r="G230" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="231" spans="7:7">
       <c r="G231" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="232" spans="7:7">
       <c r="G232" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="233" spans="7:7">
       <c r="G233" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="234" spans="7:7">
       <c r="G234" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="235" spans="7:7">
       <c r="G235" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236" spans="7:7">
       <c r="G236" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="7:7">
       <c r="G237" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="238" spans="7:7">
       <c r="G238" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="239" spans="7:7">
       <c r="G239" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="240" spans="7:7">
       <c r="G240" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="241" spans="7:7">
       <c r="G241" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="242" spans="7:7">
       <c r="G242" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="243" spans="7:7">
       <c r="G243" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="244" spans="7:7">
       <c r="G244" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="245" spans="7:7">
       <c r="G245" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="246" spans="7:7">
       <c r="G246" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="247" spans="7:7">
       <c r="G247" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="7:7">
       <c r="G248" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="249" spans="7:7">
       <c r="G249" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="250" spans="7:7">
       <c r="G250" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="251" spans="7:7">
       <c r="G251" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="252" spans="7:7">
       <c r="G252" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="253" spans="7:7">
       <c r="G253" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="254" spans="7:7">
       <c r="G254" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="255" spans="7:7">
       <c r="G255" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="256" spans="7:7">
       <c r="G256" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="257" spans="7:7">
       <c r="G257" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="258" spans="7:7">
       <c r="G258" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="259" spans="7:7">
       <c r="G259" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="260" spans="7:7">
       <c r="G260" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="261" spans="7:7">
       <c r="G261" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="262" spans="7:7">
       <c r="G262" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="263" spans="7:7">
       <c r="G263" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="264" spans="7:7">
       <c r="G264" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="265" spans="7:7">
       <c r="G265" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="266" spans="7:7">
       <c r="G266" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="267" spans="7:7">
       <c r="G267" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="268" spans="7:7">
       <c r="G268" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="269" spans="7:7">
       <c r="G269" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="270" spans="7:7">
       <c r="G270" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="271" spans="7:7">
       <c r="G271" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="272" spans="7:7">
       <c r="G272" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="273" spans="7:7">
       <c r="G273" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="274" spans="7:7">
       <c r="G274" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="275" spans="7:7">
       <c r="G275" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="276" spans="7:7">
       <c r="G276" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="277" spans="7:7">
       <c r="G277" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="278" spans="7:7">
       <c r="G278" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="279" spans="7:7">
       <c r="G279" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="280" spans="7:7">
       <c r="G280" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="281" spans="7:7">
       <c r="G281" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="282" spans="7:7">
       <c r="G282" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="283" spans="7:7">
       <c r="G283" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="284" spans="7:7">
       <c r="G284" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="7:7">
       <c r="G285" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="286" spans="7:7">
       <c r="G286" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="287" spans="7:7">
       <c r="G287" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="288" spans="7:7">
       <c r="G288" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -111,7 +111,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -129,7 +129,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$G$1:$G$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="581">
   <si>
     <t>alias</t>
   </si>
@@ -843,6 +843,30 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>(Mandatory) Sex of the organism from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>date of birth</t>
+  </si>
+  <si>
+    <t>(Recommended) Date of birth of subject the sample was derived from.</t>
+  </si>
+  <si>
+    <t>date of death</t>
+  </si>
+  <si>
+    <t>(Recommended) Date of death of subject the sample was derived from.</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>(Mandatory) The investigation, analysis and recognition of the presence and nature of disease, condition, or injury from expressed signs and symptoms; also, the scientific determination of any kind; the concise results of such an investigation (http://ncicb.nci.nih.gov/xml/owl/evs/thesaurus.owl#c15220).</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1671,6 +1695,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1711,30 +1738,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>(Mandatory) Sex of the organism from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>date of birth</t>
-  </si>
-  <si>
-    <t>(Recommended) Date of birth of subject the sample was derived from.</t>
-  </si>
-  <si>
-    <t>date of death</t>
-  </si>
-  <si>
-    <t>(Recommended) Date of death of subject the sample was derived from.</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>(Mandatory) The investigation, analysis and recognition of the presence and nature of disease, condition, or injury from expressed signs and symptoms; also, the scientific determination of any kind; the concise results of such an investigation (http://ncicb.nci.nih.gov/xml/owl/evs/thesaurus.owl#c15220).</t>
   </si>
   <si>
     <t>strain</t>
@@ -3313,37 +3316,37 @@
         <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>558</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>560</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>562</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>564</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
@@ -3366,42 +3369,42 @@
         <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>559</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>561</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>563</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>565</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3411,1450 +3414,1455 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:G288"/>
+  <dimension ref="K1:K289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="7:7">
-      <c r="G1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="7:7">
-      <c r="G2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="7:7">
-      <c r="G3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="7:7">
-      <c r="G4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="7:7">
-      <c r="G5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="7:7">
-      <c r="G6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="7:7">
-      <c r="G7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="7:7">
-      <c r="G8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7">
-      <c r="G9" t="s">
+    <row r="1" spans="11:11">
+      <c r="K1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
-      <c r="G10" t="s">
+    <row r="2" spans="11:11">
+      <c r="K2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="7:7">
-      <c r="G11" t="s">
+    <row r="3" spans="11:11">
+      <c r="K3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="7:7">
-      <c r="G12" t="s">
+    <row r="4" spans="11:11">
+      <c r="K4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="7:7">
-      <c r="G13" t="s">
+    <row r="5" spans="11:11">
+      <c r="K5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="7:7">
-      <c r="G14" t="s">
+    <row r="6" spans="11:11">
+      <c r="K6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="7:7">
-      <c r="G15" t="s">
+    <row r="7" spans="11:11">
+      <c r="K7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="7:7">
-      <c r="G16" t="s">
+    <row r="8" spans="11:11">
+      <c r="K8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="s">
+    <row r="9" spans="11:11">
+      <c r="K9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="7:7">
-      <c r="G18" t="s">
+    <row r="10" spans="11:11">
+      <c r="K10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
-      <c r="G19" t="s">
+    <row r="11" spans="11:11">
+      <c r="K11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="7:7">
-      <c r="G20" t="s">
+    <row r="12" spans="11:11">
+      <c r="K12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="7:7">
-      <c r="G21" t="s">
+    <row r="13" spans="11:11">
+      <c r="K13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="7:7">
-      <c r="G22" t="s">
+    <row r="14" spans="11:11">
+      <c r="K14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="7:7">
-      <c r="G23" t="s">
+    <row r="15" spans="11:11">
+      <c r="K15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="7:7">
-      <c r="G24" t="s">
+    <row r="16" spans="11:11">
+      <c r="K16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="7:7">
-      <c r="G25" t="s">
+    <row r="17" spans="11:11">
+      <c r="K17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="7:7">
-      <c r="G26" t="s">
+    <row r="18" spans="11:11">
+      <c r="K18" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="7:7">
-      <c r="G27" t="s">
+    <row r="19" spans="11:11">
+      <c r="K19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="7:7">
-      <c r="G28" t="s">
+    <row r="20" spans="11:11">
+      <c r="K20" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="7:7">
-      <c r="G29" t="s">
+    <row r="21" spans="11:11">
+      <c r="K21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="7:7">
-      <c r="G30" t="s">
+    <row r="22" spans="11:11">
+      <c r="K22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="7:7">
-      <c r="G31" t="s">
+    <row r="23" spans="11:11">
+      <c r="K23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="7:7">
-      <c r="G32" t="s">
+    <row r="24" spans="11:11">
+      <c r="K24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="7:7">
-      <c r="G33" t="s">
+    <row r="25" spans="11:11">
+      <c r="K25" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
-      <c r="G34" t="s">
+    <row r="26" spans="11:11">
+      <c r="K26" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="7:7">
-      <c r="G35" t="s">
+    <row r="27" spans="11:11">
+      <c r="K27" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="7:7">
-      <c r="G36" t="s">
+    <row r="28" spans="11:11">
+      <c r="K28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
-      <c r="G37" t="s">
+    <row r="29" spans="11:11">
+      <c r="K29" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="7:7">
-      <c r="G38" t="s">
+    <row r="30" spans="11:11">
+      <c r="K30" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="7:7">
-      <c r="G39" t="s">
+    <row r="31" spans="11:11">
+      <c r="K31" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="7:7">
-      <c r="G40" t="s">
+    <row r="32" spans="11:11">
+      <c r="K32" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="7:7">
-      <c r="G41" t="s">
+    <row r="33" spans="11:11">
+      <c r="K33" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="7:7">
-      <c r="G42" t="s">
+    <row r="34" spans="11:11">
+      <c r="K34" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="7:7">
-      <c r="G43" t="s">
+    <row r="35" spans="11:11">
+      <c r="K35" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="7:7">
-      <c r="G44" t="s">
+    <row r="36" spans="11:11">
+      <c r="K36" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="7:7">
-      <c r="G45" t="s">
+    <row r="37" spans="11:11">
+      <c r="K37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="7:7">
-      <c r="G46" t="s">
+    <row r="38" spans="11:11">
+      <c r="K38" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="7:7">
-      <c r="G47" t="s">
+    <row r="39" spans="11:11">
+      <c r="K39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="7:7">
-      <c r="G48" t="s">
+    <row r="40" spans="11:11">
+      <c r="K40" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="7:7">
-      <c r="G49" t="s">
+    <row r="41" spans="11:11">
+      <c r="K41" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="7:7">
-      <c r="G50" t="s">
+    <row r="42" spans="11:11">
+      <c r="K42" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="7:7">
-      <c r="G51" t="s">
+    <row r="43" spans="11:11">
+      <c r="K43" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="7:7">
-      <c r="G52" t="s">
+    <row r="44" spans="11:11">
+      <c r="K44" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="7:7">
-      <c r="G53" t="s">
+    <row r="45" spans="11:11">
+      <c r="K45" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="7:7">
-      <c r="G54" t="s">
+    <row r="46" spans="11:11">
+      <c r="K46" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="7:7">
-      <c r="G55" t="s">
+    <row r="47" spans="11:11">
+      <c r="K47" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="7:7">
-      <c r="G56" t="s">
+    <row r="48" spans="11:11">
+      <c r="K48" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="7:7">
-      <c r="G57" t="s">
+    <row r="49" spans="11:11">
+      <c r="K49" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="7:7">
-      <c r="G58" t="s">
+    <row r="50" spans="11:11">
+      <c r="K50" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="7:7">
-      <c r="G59" t="s">
+    <row r="51" spans="11:11">
+      <c r="K51" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="7:7">
-      <c r="G60" t="s">
+    <row r="52" spans="11:11">
+      <c r="K52" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="7:7">
-      <c r="G61" t="s">
+    <row r="53" spans="11:11">
+      <c r="K53" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="7:7">
-      <c r="G62" t="s">
+    <row r="54" spans="11:11">
+      <c r="K54" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="7:7">
-      <c r="G63" t="s">
+    <row r="55" spans="11:11">
+      <c r="K55" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="7:7">
-      <c r="G64" t="s">
+    <row r="56" spans="11:11">
+      <c r="K56" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="7:7">
-      <c r="G65" t="s">
+    <row r="57" spans="11:11">
+      <c r="K57" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="7:7">
-      <c r="G66" t="s">
+    <row r="58" spans="11:11">
+      <c r="K58" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="7:7">
-      <c r="G67" t="s">
+    <row r="59" spans="11:11">
+      <c r="K59" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="7:7">
-      <c r="G68" t="s">
+    <row r="60" spans="11:11">
+      <c r="K60" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="69" spans="7:7">
-      <c r="G69" t="s">
+    <row r="61" spans="11:11">
+      <c r="K61" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="7:7">
-      <c r="G70" t="s">
+    <row r="62" spans="11:11">
+      <c r="K62" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="7:7">
-      <c r="G71" t="s">
+    <row r="63" spans="11:11">
+      <c r="K63" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="72" spans="7:7">
-      <c r="G72" t="s">
+    <row r="64" spans="11:11">
+      <c r="K64" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="7:7">
-      <c r="G73" t="s">
+    <row r="65" spans="11:11">
+      <c r="K65" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="74" spans="7:7">
-      <c r="G74" t="s">
+    <row r="66" spans="11:11">
+      <c r="K66" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="75" spans="7:7">
-      <c r="G75" t="s">
+    <row r="67" spans="11:11">
+      <c r="K67" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="76" spans="7:7">
-      <c r="G76" t="s">
+    <row r="68" spans="11:11">
+      <c r="K68" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="7:7">
-      <c r="G77" t="s">
+    <row r="69" spans="11:11">
+      <c r="K69" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="7:7">
-      <c r="G78" t="s">
+    <row r="70" spans="11:11">
+      <c r="K70" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="7:7">
-      <c r="G79" t="s">
+    <row r="71" spans="11:11">
+      <c r="K71" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="7:7">
-      <c r="G80" t="s">
+    <row r="72" spans="11:11">
+      <c r="K72" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="81" spans="7:7">
-      <c r="G81" t="s">
+    <row r="73" spans="11:11">
+      <c r="K73" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="7:7">
-      <c r="G82" t="s">
+    <row r="74" spans="11:11">
+      <c r="K74" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="83" spans="7:7">
-      <c r="G83" t="s">
+    <row r="75" spans="11:11">
+      <c r="K75" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="7:7">
-      <c r="G84" t="s">
+    <row r="76" spans="11:11">
+      <c r="K76" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="85" spans="7:7">
-      <c r="G85" t="s">
+    <row r="77" spans="11:11">
+      <c r="K77" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="86" spans="7:7">
-      <c r="G86" t="s">
+    <row r="78" spans="11:11">
+      <c r="K78" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="87" spans="7:7">
-      <c r="G87" t="s">
+    <row r="79" spans="11:11">
+      <c r="K79" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="7:7">
-      <c r="G88" t="s">
+    <row r="80" spans="11:11">
+      <c r="K80" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="7:7">
-      <c r="G89" t="s">
+    <row r="81" spans="11:11">
+      <c r="K81" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="7:7">
-      <c r="G90" t="s">
+    <row r="82" spans="11:11">
+      <c r="K82" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="91" spans="7:7">
-      <c r="G91" t="s">
+    <row r="83" spans="11:11">
+      <c r="K83" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="7:7">
-      <c r="G92" t="s">
+    <row r="84" spans="11:11">
+      <c r="K84" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="7:7">
-      <c r="G93" t="s">
+    <row r="85" spans="11:11">
+      <c r="K85" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="7:7">
-      <c r="G94" t="s">
+    <row r="86" spans="11:11">
+      <c r="K86" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="95" spans="7:7">
-      <c r="G95" t="s">
+    <row r="87" spans="11:11">
+      <c r="K87" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="7:7">
-      <c r="G96" t="s">
+    <row r="88" spans="11:11">
+      <c r="K88" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="7:7">
-      <c r="G97" t="s">
+    <row r="89" spans="11:11">
+      <c r="K89" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="98" spans="7:7">
-      <c r="G98" t="s">
+    <row r="90" spans="11:11">
+      <c r="K90" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="99" spans="7:7">
-      <c r="G99" t="s">
+    <row r="91" spans="11:11">
+      <c r="K91" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="7:7">
-      <c r="G100" t="s">
+    <row r="92" spans="11:11">
+      <c r="K92" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="101" spans="7:7">
-      <c r="G101" t="s">
+    <row r="93" spans="11:11">
+      <c r="K93" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="102" spans="7:7">
-      <c r="G102" t="s">
+    <row r="94" spans="11:11">
+      <c r="K94" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="103" spans="7:7">
-      <c r="G103" t="s">
+    <row r="95" spans="11:11">
+      <c r="K95" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="7:7">
-      <c r="G104" t="s">
+    <row r="96" spans="11:11">
+      <c r="K96" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="105" spans="7:7">
-      <c r="G105" t="s">
+    <row r="97" spans="11:11">
+      <c r="K97" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="106" spans="7:7">
-      <c r="G106" t="s">
+    <row r="98" spans="11:11">
+      <c r="K98" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="107" spans="7:7">
-      <c r="G107" t="s">
+    <row r="99" spans="11:11">
+      <c r="K99" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="108" spans="7:7">
-      <c r="G108" t="s">
+    <row r="100" spans="11:11">
+      <c r="K100" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="109" spans="7:7">
-      <c r="G109" t="s">
+    <row r="101" spans="11:11">
+      <c r="K101" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="7:7">
-      <c r="G110" t="s">
+    <row r="102" spans="11:11">
+      <c r="K102" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="7:7">
-      <c r="G111" t="s">
+    <row r="103" spans="11:11">
+      <c r="K103" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="7:7">
-      <c r="G112" t="s">
+    <row r="104" spans="11:11">
+      <c r="K104" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="7:7">
-      <c r="G113" t="s">
+    <row r="105" spans="11:11">
+      <c r="K105" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="114" spans="7:7">
-      <c r="G114" t="s">
+    <row r="106" spans="11:11">
+      <c r="K106" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="115" spans="7:7">
-      <c r="G115" t="s">
+    <row r="107" spans="11:11">
+      <c r="K107" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="116" spans="7:7">
-      <c r="G116" t="s">
+    <row r="108" spans="11:11">
+      <c r="K108" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="117" spans="7:7">
-      <c r="G117" t="s">
+    <row r="109" spans="11:11">
+      <c r="K109" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="7:7">
-      <c r="G118" t="s">
+    <row r="110" spans="11:11">
+      <c r="K110" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="119" spans="7:7">
-      <c r="G119" t="s">
+    <row r="111" spans="11:11">
+      <c r="K111" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="120" spans="7:7">
-      <c r="G120" t="s">
+    <row r="112" spans="11:11">
+      <c r="K112" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="121" spans="7:7">
-      <c r="G121" t="s">
+    <row r="113" spans="11:11">
+      <c r="K113" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="122" spans="7:7">
-      <c r="G122" t="s">
+    <row r="114" spans="11:11">
+      <c r="K114" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="123" spans="7:7">
-      <c r="G123" t="s">
+    <row r="115" spans="11:11">
+      <c r="K115" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="124" spans="7:7">
-      <c r="G124" t="s">
+    <row r="116" spans="11:11">
+      <c r="K116" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="125" spans="7:7">
-      <c r="G125" t="s">
+    <row r="117" spans="11:11">
+      <c r="K117" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="126" spans="7:7">
-      <c r="G126" t="s">
+    <row r="118" spans="11:11">
+      <c r="K118" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="127" spans="7:7">
-      <c r="G127" t="s">
+    <row r="119" spans="11:11">
+      <c r="K119" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="128" spans="7:7">
-      <c r="G128" t="s">
+    <row r="120" spans="11:11">
+      <c r="K120" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="129" spans="7:7">
-      <c r="G129" t="s">
+    <row r="121" spans="11:11">
+      <c r="K121" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="130" spans="7:7">
-      <c r="G130" t="s">
+    <row r="122" spans="11:11">
+      <c r="K122" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="131" spans="7:7">
-      <c r="G131" t="s">
+    <row r="123" spans="11:11">
+      <c r="K123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="7:7">
-      <c r="G132" t="s">
+    <row r="124" spans="11:11">
+      <c r="K124" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="133" spans="7:7">
-      <c r="G133" t="s">
+    <row r="125" spans="11:11">
+      <c r="K125" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="134" spans="7:7">
-      <c r="G134" t="s">
+    <row r="126" spans="11:11">
+      <c r="K126" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="135" spans="7:7">
-      <c r="G135" t="s">
+    <row r="127" spans="11:11">
+      <c r="K127" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="136" spans="7:7">
-      <c r="G136" t="s">
+    <row r="128" spans="11:11">
+      <c r="K128" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="137" spans="7:7">
-      <c r="G137" t="s">
+    <row r="129" spans="11:11">
+      <c r="K129" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="138" spans="7:7">
-      <c r="G138" t="s">
+    <row r="130" spans="11:11">
+      <c r="K130" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="7:7">
-      <c r="G139" t="s">
+    <row r="131" spans="11:11">
+      <c r="K131" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="140" spans="7:7">
-      <c r="G140" t="s">
+    <row r="132" spans="11:11">
+      <c r="K132" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="141" spans="7:7">
-      <c r="G141" t="s">
+    <row r="133" spans="11:11">
+      <c r="K133" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="142" spans="7:7">
-      <c r="G142" t="s">
+    <row r="134" spans="11:11">
+      <c r="K134" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="143" spans="7:7">
-      <c r="G143" t="s">
+    <row r="135" spans="11:11">
+      <c r="K135" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="144" spans="7:7">
-      <c r="G144" t="s">
+    <row r="136" spans="11:11">
+      <c r="K136" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="7:7">
-      <c r="G145" t="s">
+    <row r="137" spans="11:11">
+      <c r="K137" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="146" spans="7:7">
-      <c r="G146" t="s">
+    <row r="138" spans="11:11">
+      <c r="K138" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="147" spans="7:7">
-      <c r="G147" t="s">
+    <row r="139" spans="11:11">
+      <c r="K139" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="148" spans="7:7">
-      <c r="G148" t="s">
+    <row r="140" spans="11:11">
+      <c r="K140" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="149" spans="7:7">
-      <c r="G149" t="s">
+    <row r="141" spans="11:11">
+      <c r="K141" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="150" spans="7:7">
-      <c r="G150" t="s">
+    <row r="142" spans="11:11">
+      <c r="K142" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="151" spans="7:7">
-      <c r="G151" t="s">
+    <row r="143" spans="11:11">
+      <c r="K143" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="7:7">
-      <c r="G152" t="s">
+    <row r="144" spans="11:11">
+      <c r="K144" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="153" spans="7:7">
-      <c r="G153" t="s">
+    <row r="145" spans="11:11">
+      <c r="K145" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="154" spans="7:7">
-      <c r="G154" t="s">
+    <row r="146" spans="11:11">
+      <c r="K146" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="155" spans="7:7">
-      <c r="G155" t="s">
+    <row r="147" spans="11:11">
+      <c r="K147" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="156" spans="7:7">
-      <c r="G156" t="s">
+    <row r="148" spans="11:11">
+      <c r="K148" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="157" spans="7:7">
-      <c r="G157" t="s">
+    <row r="149" spans="11:11">
+      <c r="K149" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="7:7">
-      <c r="G158" t="s">
+    <row r="150" spans="11:11">
+      <c r="K150" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="7:7">
-      <c r="G159" t="s">
+    <row r="151" spans="11:11">
+      <c r="K151" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="7:7">
-      <c r="G160" t="s">
+    <row r="152" spans="11:11">
+      <c r="K152" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="7:7">
-      <c r="G161" t="s">
+    <row r="153" spans="11:11">
+      <c r="K153" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="7:7">
-      <c r="G162" t="s">
+    <row r="154" spans="11:11">
+      <c r="K154" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="163" spans="7:7">
-      <c r="G163" t="s">
+    <row r="155" spans="11:11">
+      <c r="K155" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="164" spans="7:7">
-      <c r="G164" t="s">
+    <row r="156" spans="11:11">
+      <c r="K156" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="165" spans="7:7">
-      <c r="G165" t="s">
+    <row r="157" spans="11:11">
+      <c r="K157" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="166" spans="7:7">
-      <c r="G166" t="s">
+    <row r="158" spans="11:11">
+      <c r="K158" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="167" spans="7:7">
-      <c r="G167" t="s">
+    <row r="159" spans="11:11">
+      <c r="K159" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="168" spans="7:7">
-      <c r="G168" t="s">
+    <row r="160" spans="11:11">
+      <c r="K160" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="169" spans="7:7">
-      <c r="G169" t="s">
+    <row r="161" spans="11:11">
+      <c r="K161" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="170" spans="7:7">
-      <c r="G170" t="s">
+    <row r="162" spans="11:11">
+      <c r="K162" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="171" spans="7:7">
-      <c r="G171" t="s">
+    <row r="163" spans="11:11">
+      <c r="K163" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="172" spans="7:7">
-      <c r="G172" t="s">
+    <row r="164" spans="11:11">
+      <c r="K164" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="173" spans="7:7">
-      <c r="G173" t="s">
+    <row r="165" spans="11:11">
+      <c r="K165" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="174" spans="7:7">
-      <c r="G174" t="s">
+    <row r="166" spans="11:11">
+      <c r="K166" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="175" spans="7:7">
-      <c r="G175" t="s">
+    <row r="167" spans="11:11">
+      <c r="K167" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="176" spans="7:7">
-      <c r="G176" t="s">
+    <row r="168" spans="11:11">
+      <c r="K168" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="177" spans="7:7">
-      <c r="G177" t="s">
+    <row r="169" spans="11:11">
+      <c r="K169" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="178" spans="7:7">
-      <c r="G178" t="s">
+    <row r="170" spans="11:11">
+      <c r="K170" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="179" spans="7:7">
-      <c r="G179" t="s">
+    <row r="171" spans="11:11">
+      <c r="K171" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="180" spans="7:7">
-      <c r="G180" t="s">
+    <row r="172" spans="11:11">
+      <c r="K172" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="181" spans="7:7">
-      <c r="G181" t="s">
+    <row r="173" spans="11:11">
+      <c r="K173" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="182" spans="7:7">
-      <c r="G182" t="s">
+    <row r="174" spans="11:11">
+      <c r="K174" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="183" spans="7:7">
-      <c r="G183" t="s">
+    <row r="175" spans="11:11">
+      <c r="K175" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="184" spans="7:7">
-      <c r="G184" t="s">
+    <row r="176" spans="11:11">
+      <c r="K176" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="185" spans="7:7">
-      <c r="G185" t="s">
+    <row r="177" spans="11:11">
+      <c r="K177" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="186" spans="7:7">
-      <c r="G186" t="s">
+    <row r="178" spans="11:11">
+      <c r="K178" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="187" spans="7:7">
-      <c r="G187" t="s">
+    <row r="179" spans="11:11">
+      <c r="K179" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="188" spans="7:7">
-      <c r="G188" t="s">
+    <row r="180" spans="11:11">
+      <c r="K180" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="189" spans="7:7">
-      <c r="G189" t="s">
+    <row r="181" spans="11:11">
+      <c r="K181" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="190" spans="7:7">
-      <c r="G190" t="s">
+    <row r="182" spans="11:11">
+      <c r="K182" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="191" spans="7:7">
-      <c r="G191" t="s">
+    <row r="183" spans="11:11">
+      <c r="K183" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="192" spans="7:7">
-      <c r="G192" t="s">
+    <row r="184" spans="11:11">
+      <c r="K184" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="193" spans="7:7">
-      <c r="G193" t="s">
+    <row r="185" spans="11:11">
+      <c r="K185" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="194" spans="7:7">
-      <c r="G194" t="s">
+    <row r="186" spans="11:11">
+      <c r="K186" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="195" spans="7:7">
-      <c r="G195" t="s">
+    <row r="187" spans="11:11">
+      <c r="K187" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="196" spans="7:7">
-      <c r="G196" t="s">
+    <row r="188" spans="11:11">
+      <c r="K188" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="197" spans="7:7">
-      <c r="G197" t="s">
+    <row r="189" spans="11:11">
+      <c r="K189" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="198" spans="7:7">
-      <c r="G198" t="s">
+    <row r="190" spans="11:11">
+      <c r="K190" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="199" spans="7:7">
-      <c r="G199" t="s">
+    <row r="191" spans="11:11">
+      <c r="K191" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="200" spans="7:7">
-      <c r="G200" t="s">
+    <row r="192" spans="11:11">
+      <c r="K192" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="7:7">
-      <c r="G201" t="s">
+    <row r="193" spans="11:11">
+      <c r="K193" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="202" spans="7:7">
-      <c r="G202" t="s">
+    <row r="194" spans="11:11">
+      <c r="K194" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="203" spans="7:7">
-      <c r="G203" t="s">
+    <row r="195" spans="11:11">
+      <c r="K195" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="204" spans="7:7">
-      <c r="G204" t="s">
+    <row r="196" spans="11:11">
+      <c r="K196" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="205" spans="7:7">
-      <c r="G205" t="s">
+    <row r="197" spans="11:11">
+      <c r="K197" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="206" spans="7:7">
-      <c r="G206" t="s">
+    <row r="198" spans="11:11">
+      <c r="K198" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="207" spans="7:7">
-      <c r="G207" t="s">
+    <row r="199" spans="11:11">
+      <c r="K199" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="208" spans="7:7">
-      <c r="G208" t="s">
+    <row r="200" spans="11:11">
+      <c r="K200" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="209" spans="7:7">
-      <c r="G209" t="s">
+    <row r="201" spans="11:11">
+      <c r="K201" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="210" spans="7:7">
-      <c r="G210" t="s">
+    <row r="202" spans="11:11">
+      <c r="K202" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="211" spans="7:7">
-      <c r="G211" t="s">
+    <row r="203" spans="11:11">
+      <c r="K203" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="212" spans="7:7">
-      <c r="G212" t="s">
+    <row r="204" spans="11:11">
+      <c r="K204" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="213" spans="7:7">
-      <c r="G213" t="s">
+    <row r="205" spans="11:11">
+      <c r="K205" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="214" spans="7:7">
-      <c r="G214" t="s">
+    <row r="206" spans="11:11">
+      <c r="K206" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="215" spans="7:7">
-      <c r="G215" t="s">
+    <row r="207" spans="11:11">
+      <c r="K207" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="216" spans="7:7">
-      <c r="G216" t="s">
+    <row r="208" spans="11:11">
+      <c r="K208" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="217" spans="7:7">
-      <c r="G217" t="s">
+    <row r="209" spans="11:11">
+      <c r="K209" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="7:7">
-      <c r="G218" t="s">
+    <row r="210" spans="11:11">
+      <c r="K210" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="219" spans="7:7">
-      <c r="G219" t="s">
+    <row r="211" spans="11:11">
+      <c r="K211" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="220" spans="7:7">
-      <c r="G220" t="s">
+    <row r="212" spans="11:11">
+      <c r="K212" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="221" spans="7:7">
-      <c r="G221" t="s">
+    <row r="213" spans="11:11">
+      <c r="K213" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="222" spans="7:7">
-      <c r="G222" t="s">
+    <row r="214" spans="11:11">
+      <c r="K214" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="223" spans="7:7">
-      <c r="G223" t="s">
+    <row r="215" spans="11:11">
+      <c r="K215" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="7:7">
-      <c r="G224" t="s">
+    <row r="216" spans="11:11">
+      <c r="K216" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="225" spans="7:7">
-      <c r="G225" t="s">
+    <row r="217" spans="11:11">
+      <c r="K217" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="226" spans="7:7">
-      <c r="G226" t="s">
+    <row r="218" spans="11:11">
+      <c r="K218" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="227" spans="7:7">
-      <c r="G227" t="s">
+    <row r="219" spans="11:11">
+      <c r="K219" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="228" spans="7:7">
-      <c r="G228" t="s">
+    <row r="220" spans="11:11">
+      <c r="K220" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="229" spans="7:7">
-      <c r="G229" t="s">
+    <row r="221" spans="11:11">
+      <c r="K221" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="230" spans="7:7">
-      <c r="G230" t="s">
+    <row r="222" spans="11:11">
+      <c r="K222" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="231" spans="7:7">
-      <c r="G231" t="s">
+    <row r="223" spans="11:11">
+      <c r="K223" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="7:7">
-      <c r="G232" t="s">
+    <row r="224" spans="11:11">
+      <c r="K224" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="233" spans="7:7">
-      <c r="G233" t="s">
+    <row r="225" spans="11:11">
+      <c r="K225" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="234" spans="7:7">
-      <c r="G234" t="s">
+    <row r="226" spans="11:11">
+      <c r="K226" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="235" spans="7:7">
-      <c r="G235" t="s">
+    <row r="227" spans="11:11">
+      <c r="K227" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="236" spans="7:7">
-      <c r="G236" t="s">
+    <row r="228" spans="11:11">
+      <c r="K228" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="237" spans="7:7">
-      <c r="G237" t="s">
+    <row r="229" spans="11:11">
+      <c r="K229" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="238" spans="7:7">
-      <c r="G238" t="s">
+    <row r="230" spans="11:11">
+      <c r="K230" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="239" spans="7:7">
-      <c r="G239" t="s">
+    <row r="231" spans="11:11">
+      <c r="K231" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="240" spans="7:7">
-      <c r="G240" t="s">
+    <row r="232" spans="11:11">
+      <c r="K232" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="241" spans="7:7">
-      <c r="G241" t="s">
+    <row r="233" spans="11:11">
+      <c r="K233" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="242" spans="7:7">
-      <c r="G242" t="s">
+    <row r="234" spans="11:11">
+      <c r="K234" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="243" spans="7:7">
-      <c r="G243" t="s">
+    <row r="235" spans="11:11">
+      <c r="K235" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="244" spans="7:7">
-      <c r="G244" t="s">
+    <row r="236" spans="11:11">
+      <c r="K236" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="245" spans="7:7">
-      <c r="G245" t="s">
+    <row r="237" spans="11:11">
+      <c r="K237" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="246" spans="7:7">
-      <c r="G246" t="s">
+    <row r="238" spans="11:11">
+      <c r="K238" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="247" spans="7:7">
-      <c r="G247" t="s">
+    <row r="239" spans="11:11">
+      <c r="K239" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="248" spans="7:7">
-      <c r="G248" t="s">
+    <row r="240" spans="11:11">
+      <c r="K240" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="249" spans="7:7">
-      <c r="G249" t="s">
+    <row r="241" spans="11:11">
+      <c r="K241" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="250" spans="7:7">
-      <c r="G250" t="s">
+    <row r="242" spans="11:11">
+      <c r="K242" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="251" spans="7:7">
-      <c r="G251" t="s">
+    <row r="243" spans="11:11">
+      <c r="K243" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="252" spans="7:7">
-      <c r="G252" t="s">
+    <row r="244" spans="11:11">
+      <c r="K244" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="253" spans="7:7">
-      <c r="G253" t="s">
+    <row r="245" spans="11:11">
+      <c r="K245" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="254" spans="7:7">
-      <c r="G254" t="s">
+    <row r="246" spans="11:11">
+      <c r="K246" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="255" spans="7:7">
-      <c r="G255" t="s">
+    <row r="247" spans="11:11">
+      <c r="K247" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="256" spans="7:7">
-      <c r="G256" t="s">
+    <row r="248" spans="11:11">
+      <c r="K248" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="257" spans="7:7">
-      <c r="G257" t="s">
+    <row r="249" spans="11:11">
+      <c r="K249" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="258" spans="7:7">
-      <c r="G258" t="s">
+    <row r="250" spans="11:11">
+      <c r="K250" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="259" spans="7:7">
-      <c r="G259" t="s">
+    <row r="251" spans="11:11">
+      <c r="K251" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="260" spans="7:7">
-      <c r="G260" t="s">
+    <row r="252" spans="11:11">
+      <c r="K252" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="261" spans="7:7">
-      <c r="G261" t="s">
+    <row r="253" spans="11:11">
+      <c r="K253" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="262" spans="7:7">
-      <c r="G262" t="s">
+    <row r="254" spans="11:11">
+      <c r="K254" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="263" spans="7:7">
-      <c r="G263" t="s">
+    <row r="255" spans="11:11">
+      <c r="K255" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="264" spans="7:7">
-      <c r="G264" t="s">
+    <row r="256" spans="11:11">
+      <c r="K256" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="265" spans="7:7">
-      <c r="G265" t="s">
+    <row r="257" spans="11:11">
+      <c r="K257" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="266" spans="7:7">
-      <c r="G266" t="s">
+    <row r="258" spans="11:11">
+      <c r="K258" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="267" spans="7:7">
-      <c r="G267" t="s">
+    <row r="259" spans="11:11">
+      <c r="K259" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="268" spans="7:7">
-      <c r="G268" t="s">
+    <row r="260" spans="11:11">
+      <c r="K260" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="269" spans="7:7">
-      <c r="G269" t="s">
+    <row r="261" spans="11:11">
+      <c r="K261" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="270" spans="7:7">
-      <c r="G270" t="s">
+    <row r="262" spans="11:11">
+      <c r="K262" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="271" spans="7:7">
-      <c r="G271" t="s">
+    <row r="263" spans="11:11">
+      <c r="K263" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="272" spans="7:7">
-      <c r="G272" t="s">
+    <row r="264" spans="11:11">
+      <c r="K264" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="273" spans="7:7">
-      <c r="G273" t="s">
+    <row r="265" spans="11:11">
+      <c r="K265" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="274" spans="7:7">
-      <c r="G274" t="s">
+    <row r="266" spans="11:11">
+      <c r="K266" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="275" spans="7:7">
-      <c r="G275" t="s">
+    <row r="267" spans="11:11">
+      <c r="K267" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="276" spans="7:7">
-      <c r="G276" t="s">
+    <row r="268" spans="11:11">
+      <c r="K268" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="277" spans="7:7">
-      <c r="G277" t="s">
+    <row r="269" spans="11:11">
+      <c r="K269" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="278" spans="7:7">
-      <c r="G278" t="s">
+    <row r="270" spans="11:11">
+      <c r="K270" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="279" spans="7:7">
-      <c r="G279" t="s">
+    <row r="271" spans="11:11">
+      <c r="K271" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="280" spans="7:7">
-      <c r="G280" t="s">
+    <row r="272" spans="11:11">
+      <c r="K272" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="281" spans="7:7">
-      <c r="G281" t="s">
+    <row r="273" spans="11:11">
+      <c r="K273" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="282" spans="7:7">
-      <c r="G282" t="s">
+    <row r="274" spans="11:11">
+      <c r="K274" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="283" spans="7:7">
-      <c r="G283" t="s">
+    <row r="275" spans="11:11">
+      <c r="K275" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="284" spans="7:7">
-      <c r="G284" t="s">
+    <row r="276" spans="11:11">
+      <c r="K276" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="285" spans="7:7">
-      <c r="G285" t="s">
+    <row r="277" spans="11:11">
+      <c r="K277" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="286" spans="7:7">
-      <c r="G286" t="s">
+    <row r="278" spans="11:11">
+      <c r="K278" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="287" spans="7:7">
-      <c r="G287" t="s">
+    <row r="279" spans="11:11">
+      <c r="K279" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="288" spans="7:7">
-      <c r="G288" t="s">
+    <row r="280" spans="11:11">
+      <c r="K280" t="s">
         <v>557</v>
+      </c>
+    </row>
+    <row r="281" spans="11:11">
+      <c r="K281" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="282" spans="11:11">
+      <c r="K282" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="283" spans="11:11">
+      <c r="K283" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="284" spans="11:11">
+      <c r="K284" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="285" spans="11:11">
+      <c r="K285" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="286" spans="11:11">
+      <c r="K286" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="287" spans="11:11">
+      <c r="K287" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="288" spans="11:11">
+      <c r="K288" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="289" spans="11:11">
+      <c r="K289" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="582">
   <si>
     <t>alias</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2312,7 +2315,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2356,7 +2359,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2386,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3095,6 +3098,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3119,27 +3127,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3162,122 +3170,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3304,102 +3312,102 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -3422,1447 +3430,1447 @@
   <sheetData>
     <row r="1" spans="11:11">
       <c r="K1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="11:11">
       <c r="K2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="11:11">
       <c r="K3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="11:11">
       <c r="K4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="11:11">
       <c r="K5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="11:11">
       <c r="K7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="11:11">
       <c r="K8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="11:11">
       <c r="K9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="11:11">
       <c r="K11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="11:11">
       <c r="K12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="11:11">
       <c r="K13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="11:11">
       <c r="K14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="11:11">
       <c r="K15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="11:11">
       <c r="K17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="11:11">
       <c r="K19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="11:11">
       <c r="K20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="11:11">
       <c r="K21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="11:11">
       <c r="K23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="11:11">
       <c r="K24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="11:11">
       <c r="K28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="11:11">
       <c r="K29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="11:11">
       <c r="K35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="11:11">
       <c r="K36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="11:11">
       <c r="K37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="11:11">
       <c r="K38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="11:11">
       <c r="K41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="11:11">
       <c r="K42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="11:11">
       <c r="K43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="11:11">
       <c r="K44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="11:11">
       <c r="K45" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="11:11">
       <c r="K47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="11:11">
       <c r="K48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="11:11">
       <c r="K49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="11:11">
       <c r="K50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="11:11">
       <c r="K51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="11:11">
       <c r="K52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="11:11">
       <c r="K53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="11:11">
       <c r="K54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="11:11">
       <c r="K55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="11:11">
       <c r="K56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="11:11">
       <c r="K57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="11:11">
       <c r="K58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="11:11">
       <c r="K59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="11:11">
       <c r="K60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="11:11">
       <c r="K61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="11:11">
       <c r="K62" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="11:11">
       <c r="K63" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="11:11">
       <c r="K64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="11:11">
       <c r="K65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="11:11">
       <c r="K66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="11:11">
       <c r="K67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="11:11">
       <c r="K68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="11:11">
       <c r="K69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="11:11">
       <c r="K70" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="11:11">
       <c r="K71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="11:11">
       <c r="K72" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="11:11">
       <c r="K73" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="11:11">
       <c r="K74" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="11:11">
       <c r="K75" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="11:11">
       <c r="K76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="11:11">
       <c r="K77" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="11:11">
       <c r="K79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="11:11">
       <c r="K81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="11:11">
       <c r="K82" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="11:11">
       <c r="K83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="11:11">
       <c r="K84" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="11:11">
       <c r="K85" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="11:11">
       <c r="K86" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="11:11">
       <c r="K87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="11:11">
       <c r="K88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="11:11">
       <c r="K89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="11:11">
       <c r="K90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="11:11">
       <c r="K91" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="11:11">
       <c r="K92" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="11:11">
       <c r="K93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="11:11">
       <c r="K94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="11:11">
       <c r="K95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="11:11">
       <c r="K96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="11:11">
       <c r="K99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="11:11">
       <c r="K100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="11:11">
       <c r="K101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="11:11">
       <c r="K102" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="11:11">
       <c r="K103" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="11:11">
       <c r="K104" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="11:11">
       <c r="K105" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="11:11">
       <c r="K106" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="11:11">
       <c r="K107" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="11:11">
       <c r="K109" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="11:11">
       <c r="K110" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="11:11">
       <c r="K111" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="11:11">
       <c r="K112" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="11:11">
       <c r="K113" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="11:11">
       <c r="K114" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="11:11">
       <c r="K115" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="11:11">
       <c r="K116" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="11:11">
       <c r="K117" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="11:11">
       <c r="K118" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="11:11">
       <c r="K119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="11:11">
       <c r="K120" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="11:11">
       <c r="K122" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="11:11">
       <c r="K123" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="11:11">
       <c r="K124" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="11:11">
       <c r="K125" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="11:11">
       <c r="K126" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="11:11">
       <c r="K127" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="11:11">
       <c r="K128" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="11:11">
       <c r="K129" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="11:11">
       <c r="K130" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="11:11">
       <c r="K131" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="11:11">
       <c r="K132" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="11:11">
       <c r="K133" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="11:11">
       <c r="K134" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="11:11">
       <c r="K135" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="11:11">
       <c r="K136" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="11:11">
       <c r="K137" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="11:11">
       <c r="K138" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="11:11">
       <c r="K139" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="11:11">
       <c r="K140" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="11:11">
       <c r="K141" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="11:11">
       <c r="K142" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="11:11">
       <c r="K143" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="11:11">
       <c r="K144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="11:11">
       <c r="K145" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="11:11">
       <c r="K146" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="11:11">
       <c r="K147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="11:11">
       <c r="K148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="11:11">
       <c r="K149" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="11:11">
       <c r="K150" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="151" spans="11:11">
       <c r="K151" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="152" spans="11:11">
       <c r="K152" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="153" spans="11:11">
       <c r="K153" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="154" spans="11:11">
       <c r="K154" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="11:11">
       <c r="K155" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="156" spans="11:11">
       <c r="K156" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="11:11">
       <c r="K157" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="11:11">
       <c r="K158" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="11:11">
       <c r="K159" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="160" spans="11:11">
       <c r="K160" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="161" spans="11:11">
       <c r="K161" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="162" spans="11:11">
       <c r="K162" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="11:11">
       <c r="K164" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="11:11">
       <c r="K165" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="11:11">
       <c r="K166" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="11:11">
       <c r="K167" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="11:11">
       <c r="K168" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="11:11">
       <c r="K169" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="11:11">
       <c r="K170" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="11:11">
       <c r="K171" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="172" spans="11:11">
       <c r="K172" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="11:11">
       <c r="K173" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="11:11">
       <c r="K174" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" spans="11:11">
       <c r="K178" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="11:11">
       <c r="K179" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="11:11">
       <c r="K180" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="11:11">
       <c r="K181" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" spans="11:11">
       <c r="K182" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" spans="11:11">
       <c r="K183" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" spans="11:11">
       <c r="K184" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" spans="11:11">
       <c r="K185" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="11:11">
       <c r="K186" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="11:11">
       <c r="K187" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="11:11">
       <c r="K188" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" spans="11:11">
       <c r="K189" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="11:11">
       <c r="K190" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="191" spans="11:11">
       <c r="K191" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="192" spans="11:11">
       <c r="K192" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="193" spans="11:11">
       <c r="K193" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="194" spans="11:11">
       <c r="K194" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="195" spans="11:11">
       <c r="K195" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="196" spans="11:11">
       <c r="K196" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="197" spans="11:11">
       <c r="K197" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="11:11">
       <c r="K198" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="199" spans="11:11">
       <c r="K199" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="200" spans="11:11">
       <c r="K200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="11:11">
       <c r="K201" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="11:11">
       <c r="K202" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="11:11">
       <c r="K203" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="11:11">
       <c r="K204" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="205" spans="11:11">
       <c r="K205" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="206" spans="11:11">
       <c r="K206" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="207" spans="11:11">
       <c r="K207" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="208" spans="11:11">
       <c r="K208" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="11:11">
       <c r="K209" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="210" spans="11:11">
       <c r="K210" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="11:11">
       <c r="K211" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="11:11">
       <c r="K212" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="11:11">
       <c r="K213" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="11:11">
       <c r="K214" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="11:11">
       <c r="K215" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="218" spans="11:11">
       <c r="K218" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="219" spans="11:11">
       <c r="K219" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="11:11">
       <c r="K220" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="221" spans="11:11">
       <c r="K221" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="11:11">
       <c r="K222" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="11:11">
       <c r="K223" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="11:11">
       <c r="K224" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="11:11">
       <c r="K225" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="226" spans="11:11">
       <c r="K226" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="227" spans="11:11">
       <c r="K227" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="11:11">
       <c r="K228" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="229" spans="11:11">
       <c r="K229" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="11:11">
       <c r="K230" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="11:11">
       <c r="K231" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="232" spans="11:11">
       <c r="K232" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="11:11">
       <c r="K233" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="234" spans="11:11">
       <c r="K234" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="235" spans="11:11">
       <c r="K235" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="236" spans="11:11">
       <c r="K236" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="237" spans="11:11">
       <c r="K237" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="238" spans="11:11">
       <c r="K238" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="239" spans="11:11">
       <c r="K239" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="240" spans="11:11">
       <c r="K240" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="241" spans="11:11">
       <c r="K241" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="242" spans="11:11">
       <c r="K242" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="243" spans="11:11">
       <c r="K243" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="244" spans="11:11">
       <c r="K244" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245" spans="11:11">
       <c r="K245" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="11:11">
       <c r="K246" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="11:11">
       <c r="K247" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="248" spans="11:11">
       <c r="K248" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="249" spans="11:11">
       <c r="K249" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="11:11">
       <c r="K250" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="11:11">
       <c r="K251" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="11:11">
       <c r="K252" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="253" spans="11:11">
       <c r="K253" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="11:11">
       <c r="K254" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="255" spans="11:11">
       <c r="K255" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="256" spans="11:11">
       <c r="K256" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="257" spans="11:11">
       <c r="K257" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="258" spans="11:11">
       <c r="K258" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="259" spans="11:11">
       <c r="K259" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="260" spans="11:11">
       <c r="K260" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="261" spans="11:11">
       <c r="K261" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="262" spans="11:11">
       <c r="K262" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" spans="11:11">
       <c r="K263" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="264" spans="11:11">
       <c r="K264" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="265" spans="11:11">
       <c r="K265" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="266" spans="11:11">
       <c r="K266" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="11:11">
       <c r="K267" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="268" spans="11:11">
       <c r="K268" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269" spans="11:11">
       <c r="K269" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="11:11">
       <c r="K270" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="11:11">
       <c r="K271" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="11:11">
       <c r="K272" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="11:11">
       <c r="K273" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="274" spans="11:11">
       <c r="K274" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="275" spans="11:11">
       <c r="K275" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="11:11">
       <c r="K276" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="11:11">
       <c r="K277" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="278" spans="11:11">
       <c r="K278" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279" spans="11:11">
       <c r="K279" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="280" spans="11:11">
       <c r="K280" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="281" spans="11:11">
       <c r="K281" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="282" spans="11:11">
       <c r="K282" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="283" spans="11:11">
       <c r="K283" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="284" spans="11:11">
       <c r="K284" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="285" spans="11:11">
       <c r="K285" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="286" spans="11:11">
       <c r="K286" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="287" spans="11:11">
       <c r="K287" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="288" spans="11:11">
       <c r="K288" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="289" spans="11:11">
       <c r="K289" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="583">
   <si>
     <t>alias</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2315,7 +2318,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2359,7 +2362,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3103,6 +3106,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3127,27 +3135,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3170,122 +3178,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3312,102 +3320,102 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -3430,1447 +3438,1447 @@
   <sheetData>
     <row r="1" spans="11:11">
       <c r="K1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="11:11">
       <c r="K2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="11:11">
       <c r="K3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="11:11">
       <c r="K4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="11:11">
       <c r="K5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="11:11">
       <c r="K7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="11:11">
       <c r="K8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="11:11">
       <c r="K9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="11:11">
       <c r="K11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="11:11">
       <c r="K12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="11:11">
       <c r="K13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="11:11">
       <c r="K14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="11:11">
       <c r="K15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="11:11">
       <c r="K17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="11:11">
       <c r="K19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="11:11">
       <c r="K20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="11:11">
       <c r="K21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="11:11">
       <c r="K23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="11:11">
       <c r="K24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="11:11">
       <c r="K28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="11:11">
       <c r="K29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="11:11">
       <c r="K35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="11:11">
       <c r="K36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="11:11">
       <c r="K37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="11:11">
       <c r="K38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="11:11">
       <c r="K41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="11:11">
       <c r="K42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="11:11">
       <c r="K43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="11:11">
       <c r="K44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="11:11">
       <c r="K45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="11:11">
       <c r="K47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="11:11">
       <c r="K48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="11:11">
       <c r="K49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="11:11">
       <c r="K50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="11:11">
       <c r="K51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="11:11">
       <c r="K52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="11:11">
       <c r="K53" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="11:11">
       <c r="K54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="11:11">
       <c r="K55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="11:11">
       <c r="K56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="11:11">
       <c r="K57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="11:11">
       <c r="K58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="11:11">
       <c r="K59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="11:11">
       <c r="K60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="11:11">
       <c r="K61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="11:11">
       <c r="K62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="11:11">
       <c r="K63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="11:11">
       <c r="K64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="11:11">
       <c r="K65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="11:11">
       <c r="K66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="11:11">
       <c r="K67" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="11:11">
       <c r="K68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="11:11">
       <c r="K69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="11:11">
       <c r="K70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="11:11">
       <c r="K71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="11:11">
       <c r="K72" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="11:11">
       <c r="K73" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="11:11">
       <c r="K74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="11:11">
       <c r="K75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="11:11">
       <c r="K76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="11:11">
       <c r="K77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="11:11">
       <c r="K79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="11:11">
       <c r="K81" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="11:11">
       <c r="K82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="11:11">
       <c r="K83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="11:11">
       <c r="K84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="11:11">
       <c r="K85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="11:11">
       <c r="K86" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="11:11">
       <c r="K87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="11:11">
       <c r="K88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="11:11">
       <c r="K89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="11:11">
       <c r="K90" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="11:11">
       <c r="K91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="11:11">
       <c r="K92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="11:11">
       <c r="K93" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="11:11">
       <c r="K94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="11:11">
       <c r="K95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="11:11">
       <c r="K96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="11:11">
       <c r="K99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="11:11">
       <c r="K100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="11:11">
       <c r="K101" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="11:11">
       <c r="K102" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="11:11">
       <c r="K103" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="11:11">
       <c r="K104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="11:11">
       <c r="K105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="11:11">
       <c r="K106" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="11:11">
       <c r="K107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="11:11">
       <c r="K109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="110" spans="11:11">
       <c r="K110" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="11:11">
       <c r="K111" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="11:11">
       <c r="K112" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="11:11">
       <c r="K113" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="114" spans="11:11">
       <c r="K114" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="11:11">
       <c r="K115" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="11:11">
       <c r="K116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="11:11">
       <c r="K117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="11:11">
       <c r="K118" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="11:11">
       <c r="K119" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" spans="11:11">
       <c r="K120" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="11:11">
       <c r="K122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="11:11">
       <c r="K123" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="11:11">
       <c r="K124" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="11:11">
       <c r="K125" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="11:11">
       <c r="K126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="11:11">
       <c r="K127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="11:11">
       <c r="K128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="11:11">
       <c r="K129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="11:11">
       <c r="K130" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="11:11">
       <c r="K131" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="11:11">
       <c r="K132" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="11:11">
       <c r="K133" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="11:11">
       <c r="K134" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135" spans="11:11">
       <c r="K135" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="11:11">
       <c r="K136" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="11:11">
       <c r="K137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="11:11">
       <c r="K138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="11:11">
       <c r="K139" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="11:11">
       <c r="K140" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="11:11">
       <c r="K141" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="11:11">
       <c r="K142" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="11:11">
       <c r="K143" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="11:11">
       <c r="K144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" spans="11:11">
       <c r="K145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="11:11">
       <c r="K146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="11:11">
       <c r="K147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="11:11">
       <c r="K148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="11:11">
       <c r="K149" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="150" spans="11:11">
       <c r="K150" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="11:11">
       <c r="K151" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="11:11">
       <c r="K152" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" spans="11:11">
       <c r="K153" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="11:11">
       <c r="K154" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="11:11">
       <c r="K155" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="11:11">
       <c r="K156" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="11:11">
       <c r="K157" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="11:11">
       <c r="K158" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" spans="11:11">
       <c r="K159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="11:11">
       <c r="K160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="11:11">
       <c r="K161" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="162" spans="11:11">
       <c r="K162" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="11:11">
       <c r="K164" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="11:11">
       <c r="K165" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="11:11">
       <c r="K166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="11:11">
       <c r="K167" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="11:11">
       <c r="K168" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="11:11">
       <c r="K169" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="170" spans="11:11">
       <c r="K170" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="11:11">
       <c r="K171" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="172" spans="11:11">
       <c r="K172" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="11:11">
       <c r="K173" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="11:11">
       <c r="K174" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="11:11">
       <c r="K178" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="179" spans="11:11">
       <c r="K179" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="11:11">
       <c r="K180" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="181" spans="11:11">
       <c r="K181" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="11:11">
       <c r="K182" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="183" spans="11:11">
       <c r="K183" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184" spans="11:11">
       <c r="K184" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="185" spans="11:11">
       <c r="K185" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="11:11">
       <c r="K186" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="11:11">
       <c r="K187" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="188" spans="11:11">
       <c r="K188" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189" spans="11:11">
       <c r="K189" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="190" spans="11:11">
       <c r="K190" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="191" spans="11:11">
       <c r="K191" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="11:11">
       <c r="K192" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="193" spans="11:11">
       <c r="K193" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="11:11">
       <c r="K194" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="11:11">
       <c r="K195" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="11:11">
       <c r="K196" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="11:11">
       <c r="K197" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="11:11">
       <c r="K198" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="11:11">
       <c r="K199" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="11:11">
       <c r="K200" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="11:11">
       <c r="K201" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="11:11">
       <c r="K202" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="11:11">
       <c r="K203" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="204" spans="11:11">
       <c r="K204" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="11:11">
       <c r="K205" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="11:11">
       <c r="K206" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="11:11">
       <c r="K207" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" spans="11:11">
       <c r="K208" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="209" spans="11:11">
       <c r="K209" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="210" spans="11:11">
       <c r="K210" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="211" spans="11:11">
       <c r="K211" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="11:11">
       <c r="K212" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="213" spans="11:11">
       <c r="K213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="11:11">
       <c r="K214" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="215" spans="11:11">
       <c r="K215" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="11:11">
       <c r="K218" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="11:11">
       <c r="K219" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="11:11">
       <c r="K220" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="11:11">
       <c r="K221" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="11:11">
       <c r="K222" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="223" spans="11:11">
       <c r="K223" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="11:11">
       <c r="K224" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="225" spans="11:11">
       <c r="K225" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="11:11">
       <c r="K226" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="11:11">
       <c r="K227" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="11:11">
       <c r="K228" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="229" spans="11:11">
       <c r="K229" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="230" spans="11:11">
       <c r="K230" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="231" spans="11:11">
       <c r="K231" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="232" spans="11:11">
       <c r="K232" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="233" spans="11:11">
       <c r="K233" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="234" spans="11:11">
       <c r="K234" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="235" spans="11:11">
       <c r="K235" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="236" spans="11:11">
       <c r="K236" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="237" spans="11:11">
       <c r="K237" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="238" spans="11:11">
       <c r="K238" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="239" spans="11:11">
       <c r="K239" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="240" spans="11:11">
       <c r="K240" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="241" spans="11:11">
       <c r="K241" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="242" spans="11:11">
       <c r="K242" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="243" spans="11:11">
       <c r="K243" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="244" spans="11:11">
       <c r="K244" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="245" spans="11:11">
       <c r="K245" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="246" spans="11:11">
       <c r="K246" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="247" spans="11:11">
       <c r="K247" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="248" spans="11:11">
       <c r="K248" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="249" spans="11:11">
       <c r="K249" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250" spans="11:11">
       <c r="K250" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="251" spans="11:11">
       <c r="K251" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="252" spans="11:11">
       <c r="K252" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="253" spans="11:11">
       <c r="K253" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="254" spans="11:11">
       <c r="K254" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="255" spans="11:11">
       <c r="K255" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="256" spans="11:11">
       <c r="K256" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="257" spans="11:11">
       <c r="K257" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="258" spans="11:11">
       <c r="K258" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="259" spans="11:11">
       <c r="K259" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="260" spans="11:11">
       <c r="K260" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="261" spans="11:11">
       <c r="K261" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="262" spans="11:11">
       <c r="K262" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="263" spans="11:11">
       <c r="K263" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="264" spans="11:11">
       <c r="K264" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="265" spans="11:11">
       <c r="K265" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="266" spans="11:11">
       <c r="K266" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="267" spans="11:11">
       <c r="K267" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="268" spans="11:11">
       <c r="K268" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="11:11">
       <c r="K269" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="11:11">
       <c r="K270" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="271" spans="11:11">
       <c r="K271" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="11:11">
       <c r="K272" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="273" spans="11:11">
       <c r="K273" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="274" spans="11:11">
       <c r="K274" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="11:11">
       <c r="K275" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="276" spans="11:11">
       <c r="K276" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="277" spans="11:11">
       <c r="K277" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="278" spans="11:11">
       <c r="K278" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="279" spans="11:11">
       <c r="K279" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280" spans="11:11">
       <c r="K280" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281" spans="11:11">
       <c r="K281" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="282" spans="11:11">
       <c r="K282" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="283" spans="11:11">
       <c r="K283" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="284" spans="11:11">
       <c r="K284" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="285" spans="11:11">
       <c r="K285" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="286" spans="11:11">
       <c r="K286" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="287" spans="11:11">
       <c r="K287" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="288" spans="11:11">
       <c r="K288" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="289" spans="11:11">
       <c r="K289" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="584">
   <si>
     <t>alias</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2318,7 +2321,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2362,7 +2365,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2392,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3111,6 +3114,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3135,27 +3143,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3178,122 +3186,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3320,102 +3328,102 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -3438,1447 +3446,1447 @@
   <sheetData>
     <row r="1" spans="11:11">
       <c r="K1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="11:11">
       <c r="K2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="11:11">
       <c r="K3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="11:11">
       <c r="K4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="11:11">
       <c r="K5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="11:11">
       <c r="K7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="11:11">
       <c r="K8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="11:11">
       <c r="K9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="11:11">
       <c r="K11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="11:11">
       <c r="K12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="11:11">
       <c r="K13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="11:11">
       <c r="K14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="11:11">
       <c r="K15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="11:11">
       <c r="K17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="11:11">
       <c r="K19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="11:11">
       <c r="K20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="11:11">
       <c r="K21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="11:11">
       <c r="K23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="11:11">
       <c r="K24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="11:11">
       <c r="K28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="11:11">
       <c r="K29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="11:11">
       <c r="K35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="11:11">
       <c r="K36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="11:11">
       <c r="K37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="11:11">
       <c r="K38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="11:11">
       <c r="K41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="11:11">
       <c r="K42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="11:11">
       <c r="K43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="11:11">
       <c r="K44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="11:11">
       <c r="K45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="11:11">
       <c r="K47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="11:11">
       <c r="K48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="11:11">
       <c r="K49" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="11:11">
       <c r="K50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="11:11">
       <c r="K51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="11:11">
       <c r="K52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="11:11">
       <c r="K53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="11:11">
       <c r="K54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="11:11">
       <c r="K55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="11:11">
       <c r="K56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="11:11">
       <c r="K57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="11:11">
       <c r="K58" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="11:11">
       <c r="K59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="11:11">
       <c r="K60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="11:11">
       <c r="K61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="11:11">
       <c r="K62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="11:11">
       <c r="K63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="11:11">
       <c r="K64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="11:11">
       <c r="K65" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="11:11">
       <c r="K66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="11:11">
       <c r="K67" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="11:11">
       <c r="K68" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="11:11">
       <c r="K69" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="11:11">
       <c r="K70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="11:11">
       <c r="K71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="11:11">
       <c r="K72" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="11:11">
       <c r="K73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="11:11">
       <c r="K74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="11:11">
       <c r="K75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="11:11">
       <c r="K76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="11:11">
       <c r="K77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="11:11">
       <c r="K79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="11:11">
       <c r="K81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="11:11">
       <c r="K82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="11:11">
       <c r="K83" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="11:11">
       <c r="K84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="11:11">
       <c r="K85" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="11:11">
       <c r="K86" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="11:11">
       <c r="K87" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="11:11">
       <c r="K88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="11:11">
       <c r="K89" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="11:11">
       <c r="K90" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="11:11">
       <c r="K91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="11:11">
       <c r="K92" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="11:11">
       <c r="K93" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="11:11">
       <c r="K94" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="11:11">
       <c r="K95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="11:11">
       <c r="K96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="11:11">
       <c r="K99" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="11:11">
       <c r="K100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="11:11">
       <c r="K101" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="11:11">
       <c r="K102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="11:11">
       <c r="K103" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="11:11">
       <c r="K104" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="11:11">
       <c r="K105" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="11:11">
       <c r="K106" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="11:11">
       <c r="K107" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="11:11">
       <c r="K109" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="11:11">
       <c r="K110" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="11:11">
       <c r="K111" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="11:11">
       <c r="K112" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="11:11">
       <c r="K113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="11:11">
       <c r="K114" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="11:11">
       <c r="K115" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="11:11">
       <c r="K116" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="11:11">
       <c r="K117" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="11:11">
       <c r="K118" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" spans="11:11">
       <c r="K119" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="11:11">
       <c r="K120" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="11:11">
       <c r="K122" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="11:11">
       <c r="K123" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="11:11">
       <c r="K124" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="11:11">
       <c r="K125" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="11:11">
       <c r="K126" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="11:11">
       <c r="K127" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="11:11">
       <c r="K128" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="11:11">
       <c r="K129" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="11:11">
       <c r="K130" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="11:11">
       <c r="K131" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="11:11">
       <c r="K132" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="11:11">
       <c r="K133" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" spans="11:11">
       <c r="K134" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="11:11">
       <c r="K135" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="11:11">
       <c r="K136" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="11:11">
       <c r="K137" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="11:11">
       <c r="K138" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="11:11">
       <c r="K139" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="11:11">
       <c r="K140" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="11:11">
       <c r="K141" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="11:11">
       <c r="K142" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="11:11">
       <c r="K143" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="11:11">
       <c r="K144" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="11:11">
       <c r="K145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146" spans="11:11">
       <c r="K146" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="11:11">
       <c r="K147" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="11:11">
       <c r="K148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="11:11">
       <c r="K149" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="11:11">
       <c r="K150" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="151" spans="11:11">
       <c r="K151" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152" spans="11:11">
       <c r="K152" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="11:11">
       <c r="K153" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="11:11">
       <c r="K154" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="11:11">
       <c r="K155" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="11:11">
       <c r="K156" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="11:11">
       <c r="K157" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="11:11">
       <c r="K158" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" spans="11:11">
       <c r="K159" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="11:11">
       <c r="K160" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="11:11">
       <c r="K161" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="162" spans="11:11">
       <c r="K162" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="11:11">
       <c r="K164" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="11:11">
       <c r="K165" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="11:11">
       <c r="K166" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="11:11">
       <c r="K167" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="11:11">
       <c r="K168" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="11:11">
       <c r="K169" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="11:11">
       <c r="K170" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171" spans="11:11">
       <c r="K171" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="11:11">
       <c r="K172" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="11:11">
       <c r="K173" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="11:11">
       <c r="K174" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="11:11">
       <c r="K178" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" spans="11:11">
       <c r="K179" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="11:11">
       <c r="K180" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="11:11">
       <c r="K181" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="11:11">
       <c r="K182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="11:11">
       <c r="K183" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="11:11">
       <c r="K184" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="11:11">
       <c r="K185" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="11:11">
       <c r="K186" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="11:11">
       <c r="K187" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="11:11">
       <c r="K188" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="11:11">
       <c r="K189" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="11:11">
       <c r="K190" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="11:11">
       <c r="K191" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="11:11">
       <c r="K192" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="11:11">
       <c r="K193" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="194" spans="11:11">
       <c r="K194" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="11:11">
       <c r="K195" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="11:11">
       <c r="K196" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="11:11">
       <c r="K197" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="11:11">
       <c r="K198" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="11:11">
       <c r="K199" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="11:11">
       <c r="K200" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="11:11">
       <c r="K201" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="11:11">
       <c r="K202" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="203" spans="11:11">
       <c r="K203" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="204" spans="11:11">
       <c r="K204" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="11:11">
       <c r="K205" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="11:11">
       <c r="K206" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="11:11">
       <c r="K207" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="208" spans="11:11">
       <c r="K208" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="209" spans="11:11">
       <c r="K209" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="210" spans="11:11">
       <c r="K210" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="11:11">
       <c r="K211" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="11:11">
       <c r="K212" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="11:11">
       <c r="K213" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="11:11">
       <c r="K214" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215" spans="11:11">
       <c r="K215" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="11:11">
       <c r="K218" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="219" spans="11:11">
       <c r="K219" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" spans="11:11">
       <c r="K220" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="11:11">
       <c r="K221" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="222" spans="11:11">
       <c r="K222" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="11:11">
       <c r="K223" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="224" spans="11:11">
       <c r="K224" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="11:11">
       <c r="K225" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="226" spans="11:11">
       <c r="K226" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="227" spans="11:11">
       <c r="K227" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="228" spans="11:11">
       <c r="K228" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="11:11">
       <c r="K229" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="230" spans="11:11">
       <c r="K230" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="231" spans="11:11">
       <c r="K231" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="232" spans="11:11">
       <c r="K232" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="233" spans="11:11">
       <c r="K233" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="234" spans="11:11">
       <c r="K234" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="235" spans="11:11">
       <c r="K235" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="236" spans="11:11">
       <c r="K236" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="11:11">
       <c r="K237" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="238" spans="11:11">
       <c r="K238" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="239" spans="11:11">
       <c r="K239" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="240" spans="11:11">
       <c r="K240" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="241" spans="11:11">
       <c r="K241" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="242" spans="11:11">
       <c r="K242" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="243" spans="11:11">
       <c r="K243" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="244" spans="11:11">
       <c r="K244" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="245" spans="11:11">
       <c r="K245" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="11:11">
       <c r="K246" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="247" spans="11:11">
       <c r="K247" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="248" spans="11:11">
       <c r="K248" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="249" spans="11:11">
       <c r="K249" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="250" spans="11:11">
       <c r="K250" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="251" spans="11:11">
       <c r="K251" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="252" spans="11:11">
       <c r="K252" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="253" spans="11:11">
       <c r="K253" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="254" spans="11:11">
       <c r="K254" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="255" spans="11:11">
       <c r="K255" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="256" spans="11:11">
       <c r="K256" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257" spans="11:11">
       <c r="K257" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="258" spans="11:11">
       <c r="K258" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="259" spans="11:11">
       <c r="K259" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="260" spans="11:11">
       <c r="K260" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="11:11">
       <c r="K261" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="262" spans="11:11">
       <c r="K262" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="11:11">
       <c r="K263" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="11:11">
       <c r="K264" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="11:11">
       <c r="K265" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="11:11">
       <c r="K266" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="11:11">
       <c r="K267" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="11:11">
       <c r="K268" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="11:11">
       <c r="K269" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="11:11">
       <c r="K270" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="11:11">
       <c r="K271" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="11:11">
       <c r="K272" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273" spans="11:11">
       <c r="K273" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="11:11">
       <c r="K274" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="275" spans="11:11">
       <c r="K275" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="276" spans="11:11">
       <c r="K276" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="277" spans="11:11">
       <c r="K277" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="278" spans="11:11">
       <c r="K278" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="279" spans="11:11">
       <c r="K279" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="280" spans="11:11">
       <c r="K280" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="11:11">
       <c r="K281" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="11:11">
       <c r="K282" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="11:11">
       <c r="K283" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="284" spans="11:11">
       <c r="K284" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="285" spans="11:11">
       <c r="K285" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="286" spans="11:11">
       <c r="K286" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="287" spans="11:11">
       <c r="K287" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="288" spans="11:11">
       <c r="K288" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="289" spans="11:11">
       <c r="K289" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="585">
   <si>
     <t>alias</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2321,7 +2324,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2365,7 +2368,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2392,7 +2395,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3119,6 +3122,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3143,27 +3151,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3186,122 +3194,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3328,102 +3336,102 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -3446,1447 +3454,1447 @@
   <sheetData>
     <row r="1" spans="11:11">
       <c r="K1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="11:11">
       <c r="K2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="11:11">
       <c r="K3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="11:11">
       <c r="K4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="11:11">
       <c r="K5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="11:11">
       <c r="K7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="11:11">
       <c r="K8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="11:11">
       <c r="K9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="11:11">
       <c r="K11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="11:11">
       <c r="K12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="11:11">
       <c r="K13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="11:11">
       <c r="K14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="11:11">
       <c r="K15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="11:11">
       <c r="K17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="11:11">
       <c r="K19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="11:11">
       <c r="K20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="11:11">
       <c r="K21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="11:11">
       <c r="K23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="11:11">
       <c r="K24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="11:11">
       <c r="K25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="11:11">
       <c r="K26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="11:11">
       <c r="K27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="11:11">
       <c r="K28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="11:11">
       <c r="K29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="11:11">
       <c r="K30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="11:11">
       <c r="K31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="11:11">
       <c r="K35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="11:11">
       <c r="K36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="11:11">
       <c r="K37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="11:11">
       <c r="K38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="11:11">
       <c r="K41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="11:11">
       <c r="K42" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="11:11">
       <c r="K43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="11:11">
       <c r="K44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="11:11">
       <c r="K45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="11:11">
       <c r="K47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="11:11">
       <c r="K48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="11:11">
       <c r="K49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="11:11">
       <c r="K50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="11:11">
       <c r="K51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="11:11">
       <c r="K52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="11:11">
       <c r="K53" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="11:11">
       <c r="K54" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="11:11">
       <c r="K55" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="11:11">
       <c r="K56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="11:11">
       <c r="K57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="11:11">
       <c r="K58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="11:11">
       <c r="K59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="11:11">
       <c r="K60" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="11:11">
       <c r="K61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="11:11">
       <c r="K62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="11:11">
       <c r="K63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="11:11">
       <c r="K64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="11:11">
       <c r="K65" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="11:11">
       <c r="K66" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="11:11">
       <c r="K67" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="11:11">
       <c r="K68" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="11:11">
       <c r="K69" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="11:11">
       <c r="K70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="11:11">
       <c r="K71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="11:11">
       <c r="K72" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="11:11">
       <c r="K73" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="11:11">
       <c r="K74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="11:11">
       <c r="K75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="11:11">
       <c r="K76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="11:11">
       <c r="K77" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="11:11">
       <c r="K79" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="11:11">
       <c r="K81" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="11:11">
       <c r="K82" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="11:11">
       <c r="K83" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="11:11">
       <c r="K84" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="11:11">
       <c r="K85" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="11:11">
       <c r="K86" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="11:11">
       <c r="K87" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="11:11">
       <c r="K88" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="11:11">
       <c r="K89" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="11:11">
       <c r="K90" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="11:11">
       <c r="K91" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="11:11">
       <c r="K92" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="11:11">
       <c r="K93" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="11:11">
       <c r="K94" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="11:11">
       <c r="K95" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="11:11">
       <c r="K96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="11:11">
       <c r="K99" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="11:11">
       <c r="K100" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="11:11">
       <c r="K101" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="11:11">
       <c r="K102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="11:11">
       <c r="K103" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="11:11">
       <c r="K104" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="11:11">
       <c r="K105" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="11:11">
       <c r="K106" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="11:11">
       <c r="K107" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="11:11">
       <c r="K109" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="11:11">
       <c r="K110" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="11:11">
       <c r="K111" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="11:11">
       <c r="K112" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="11:11">
       <c r="K113" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="11:11">
       <c r="K114" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="11:11">
       <c r="K115" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="11:11">
       <c r="K116" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="11:11">
       <c r="K117" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="11:11">
       <c r="K118" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="11:11">
       <c r="K119" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="11:11">
       <c r="K120" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="11:11">
       <c r="K122" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="11:11">
       <c r="K123" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="11:11">
       <c r="K124" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="11:11">
       <c r="K125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="11:11">
       <c r="K126" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="11:11">
       <c r="K127" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="11:11">
       <c r="K128" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="11:11">
       <c r="K129" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="11:11">
       <c r="K130" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="11:11">
       <c r="K131" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="11:11">
       <c r="K132" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="11:11">
       <c r="K133" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="11:11">
       <c r="K134" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="11:11">
       <c r="K135" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="11:11">
       <c r="K136" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="11:11">
       <c r="K137" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" spans="11:11">
       <c r="K138" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="11:11">
       <c r="K139" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="11:11">
       <c r="K140" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="11:11">
       <c r="K141" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="11:11">
       <c r="K142" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="11:11">
       <c r="K143" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="11:11">
       <c r="K144" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="11:11">
       <c r="K145" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="146" spans="11:11">
       <c r="K146" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="11:11">
       <c r="K147" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="148" spans="11:11">
       <c r="K148" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="11:11">
       <c r="K149" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="11:11">
       <c r="K150" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="151" spans="11:11">
       <c r="K151" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="152" spans="11:11">
       <c r="K152" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153" spans="11:11">
       <c r="K153" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="154" spans="11:11">
       <c r="K154" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155" spans="11:11">
       <c r="K155" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="11:11">
       <c r="K156" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="157" spans="11:11">
       <c r="K157" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="11:11">
       <c r="K158" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="159" spans="11:11">
       <c r="K159" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" spans="11:11">
       <c r="K160" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="11:11">
       <c r="K161" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="11:11">
       <c r="K162" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="164" spans="11:11">
       <c r="K164" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="11:11">
       <c r="K165" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="11:11">
       <c r="K166" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="167" spans="11:11">
       <c r="K167" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="168" spans="11:11">
       <c r="K168" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="169" spans="11:11">
       <c r="K169" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="170" spans="11:11">
       <c r="K170" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="11:11">
       <c r="K171" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="11:11">
       <c r="K172" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="11:11">
       <c r="K173" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="11:11">
       <c r="K174" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="178" spans="11:11">
       <c r="K178" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="179" spans="11:11">
       <c r="K179" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="180" spans="11:11">
       <c r="K180" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" spans="11:11">
       <c r="K181" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="182" spans="11:11">
       <c r="K182" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="11:11">
       <c r="K183" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="11:11">
       <c r="K184" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="11:11">
       <c r="K185" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="186" spans="11:11">
       <c r="K186" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="11:11">
       <c r="K187" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="188" spans="11:11">
       <c r="K188" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="189" spans="11:11">
       <c r="K189" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="190" spans="11:11">
       <c r="K190" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="191" spans="11:11">
       <c r="K191" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="192" spans="11:11">
       <c r="K192" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="193" spans="11:11">
       <c r="K193" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="194" spans="11:11">
       <c r="K194" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="195" spans="11:11">
       <c r="K195" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="196" spans="11:11">
       <c r="K196" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="197" spans="11:11">
       <c r="K197" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="198" spans="11:11">
       <c r="K198" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="199" spans="11:11">
       <c r="K199" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="200" spans="11:11">
       <c r="K200" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="11:11">
       <c r="K201" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="202" spans="11:11">
       <c r="K202" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="203" spans="11:11">
       <c r="K203" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="11:11">
       <c r="K204" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="205" spans="11:11">
       <c r="K205" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="11:11">
       <c r="K206" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="207" spans="11:11">
       <c r="K207" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="208" spans="11:11">
       <c r="K208" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="209" spans="11:11">
       <c r="K209" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="11:11">
       <c r="K210" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211" spans="11:11">
       <c r="K211" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="212" spans="11:11">
       <c r="K212" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="213" spans="11:11">
       <c r="K213" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="214" spans="11:11">
       <c r="K214" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="215" spans="11:11">
       <c r="K215" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="218" spans="11:11">
       <c r="K218" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="219" spans="11:11">
       <c r="K219" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="11:11">
       <c r="K220" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="221" spans="11:11">
       <c r="K221" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="222" spans="11:11">
       <c r="K222" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="223" spans="11:11">
       <c r="K223" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="224" spans="11:11">
       <c r="K224" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="225" spans="11:11">
       <c r="K225" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="226" spans="11:11">
       <c r="K226" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="227" spans="11:11">
       <c r="K227" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="228" spans="11:11">
       <c r="K228" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="229" spans="11:11">
       <c r="K229" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="230" spans="11:11">
       <c r="K230" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="231" spans="11:11">
       <c r="K231" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="232" spans="11:11">
       <c r="K232" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233" spans="11:11">
       <c r="K233" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="234" spans="11:11">
       <c r="K234" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="235" spans="11:11">
       <c r="K235" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="236" spans="11:11">
       <c r="K236" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="237" spans="11:11">
       <c r="K237" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="238" spans="11:11">
       <c r="K238" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="239" spans="11:11">
       <c r="K239" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="240" spans="11:11">
       <c r="K240" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="241" spans="11:11">
       <c r="K241" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="242" spans="11:11">
       <c r="K242" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="11:11">
       <c r="K243" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="11:11">
       <c r="K244" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245" spans="11:11">
       <c r="K245" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="246" spans="11:11">
       <c r="K246" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="247" spans="11:11">
       <c r="K247" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="248" spans="11:11">
       <c r="K248" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249" spans="11:11">
       <c r="K249" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="250" spans="11:11">
       <c r="K250" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="251" spans="11:11">
       <c r="K251" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="252" spans="11:11">
       <c r="K252" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="253" spans="11:11">
       <c r="K253" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="254" spans="11:11">
       <c r="K254" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="255" spans="11:11">
       <c r="K255" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="11:11">
       <c r="K256" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="257" spans="11:11">
       <c r="K257" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="258" spans="11:11">
       <c r="K258" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="259" spans="11:11">
       <c r="K259" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="260" spans="11:11">
       <c r="K260" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="261" spans="11:11">
       <c r="K261" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="262" spans="11:11">
       <c r="K262" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="263" spans="11:11">
       <c r="K263" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="264" spans="11:11">
       <c r="K264" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="265" spans="11:11">
       <c r="K265" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="266" spans="11:11">
       <c r="K266" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="267" spans="11:11">
       <c r="K267" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="268" spans="11:11">
       <c r="K268" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="269" spans="11:11">
       <c r="K269" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="270" spans="11:11">
       <c r="K270" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="271" spans="11:11">
       <c r="K271" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="272" spans="11:11">
       <c r="K272" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273" spans="11:11">
       <c r="K273" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="274" spans="11:11">
       <c r="K274" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="275" spans="11:11">
       <c r="K275" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="276" spans="11:11">
       <c r="K276" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="277" spans="11:11">
       <c r="K277" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="278" spans="11:11">
       <c r="K278" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="279" spans="11:11">
       <c r="K279" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="280" spans="11:11">
       <c r="K280" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="281" spans="11:11">
       <c r="K281" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282" spans="11:11">
       <c r="K282" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="283" spans="11:11">
       <c r="K283" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="284" spans="11:11">
       <c r="K284" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="285" spans="11:11">
       <c r="K285" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="286" spans="11:11">
       <c r="K286" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="287" spans="11:11">
       <c r="K287" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="288" spans="11:11">
       <c r="K288" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="289" spans="11:11">
       <c r="K289" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="590">
   <si>
     <t>alias</t>
   </si>
@@ -849,7 +849,7 @@
     <t>(Mandatory) Tissue type from which the sample was obtained</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -861,13 +861,13 @@
     <t>(Mandatory) Sex of the organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>date of birth</t>
+    <t>date_of_birth</t>
   </si>
   <si>
     <t>(Recommended) Date of birth of subject the sample was derived from.</t>
   </si>
   <si>
-    <t>date of death</t>
+    <t>date_of_death</t>
   </si>
   <si>
     <t>(Recommended) Date of death of subject the sample was derived from.</t>
@@ -1092,9 +1092,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1113,6 +1110,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1314,6 +1314,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1323,9 +1326,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1365,7 +1365,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1434,6 +1434,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1509,6 +1512,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1530,6 +1536,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1575,6 +1584,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1587,6 +1599,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1596,9 +1611,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1623,6 +1635,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1683,12 +1698,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1746,7 +1761,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1758,31 +1773,31 @@
     <t>(Mandatory) Name of the strain from which the sample was obtained.</t>
   </si>
   <si>
-    <t>tumor grading (OBI_0600002)</t>
+    <t>tumor_grading_obi_0600002</t>
   </si>
   <si>
     <t>(Recommended) Determination of the grade (severity/stage) of a tumor sample, used in cancer biology to describe abnormalities/qualities of tumor cells or tissues. values can be described by terms from nci thesaurus.</t>
   </si>
   <si>
-    <t>treatment agent</t>
+    <t>treatment_agent</t>
   </si>
   <si>
     <t>(Recommended) The name of the treatment agent used.</t>
   </si>
   <si>
-    <t>treatment dose</t>
-  </si>
-  <si>
-    <t>(Recommended) The dose of the treatment agent used. (Units: picomolar)</t>
-  </si>
-  <si>
-    <t>treatment date</t>
+    <t>treatment_dose</t>
+  </si>
+  <si>
+    <t>(Recommended) The dose of the treatment agent used. (Units: molar)</t>
+  </si>
+  <si>
+    <t>treatment_date</t>
   </si>
   <si>
     <t>(Recommended) The date of the treatment applied.</t>
   </si>
   <si>
-    <t>Further Details</t>
+    <t>further_details</t>
   </si>
   <si>
     <t>(Optional) Reference details related to a sample in form of an uri.</t>
@@ -3360,25 +3375,25 @@
         <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
@@ -3413,25 +3428,25 @@
         <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -3446,7 +3461,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:K289"/>
+  <dimension ref="K1:K294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4897,6 +4912,31 @@
         <v>570</v>
       </c>
     </row>
+    <row r="290" spans="11:11">
+      <c r="K290" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="291" spans="11:11">
+      <c r="K291" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="292" spans="11:11">
+      <c r="K292" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="293" spans="11:11">
+      <c r="K293" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="294" spans="11:11">
+      <c r="K294" t="s">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="585">
   <si>
     <t>alias</t>
   </si>
@@ -849,7 +849,7 @@
     <t>(Mandatory) Tissue type from which the sample was obtained</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -861,13 +861,13 @@
     <t>(Mandatory) Sex of the organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>date_of_birth</t>
+    <t>date of birth</t>
   </si>
   <si>
     <t>(Recommended) Date of birth of subject the sample was derived from.</t>
   </si>
   <si>
-    <t>date_of_death</t>
+    <t>date of death</t>
   </si>
   <si>
     <t>(Recommended) Date of death of subject the sample was derived from.</t>
@@ -1092,6 +1092,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1110,9 +1113,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1314,9 +1314,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1326,6 +1323,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1365,7 +1365,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1434,9 +1434,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1512,9 +1509,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1536,9 +1530,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1584,9 +1575,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1599,9 +1587,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1611,6 +1596,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1635,9 +1623,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1698,12 +1683,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1761,7 +1746,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1773,31 +1758,31 @@
     <t>(Mandatory) Name of the strain from which the sample was obtained.</t>
   </si>
   <si>
-    <t>tumor_grading_obi_0600002</t>
+    <t>tumor grading (OBI_0600002)</t>
   </si>
   <si>
     <t>(Recommended) Determination of the grade (severity/stage) of a tumor sample, used in cancer biology to describe abnormalities/qualities of tumor cells or tissues. values can be described by terms from nci thesaurus.</t>
   </si>
   <si>
-    <t>treatment_agent</t>
+    <t>treatment agent</t>
   </si>
   <si>
     <t>(Recommended) The name of the treatment agent used.</t>
   </si>
   <si>
-    <t>treatment_dose</t>
-  </si>
-  <si>
-    <t>(Recommended) The dose of the treatment agent used. (Units: molar)</t>
-  </si>
-  <si>
-    <t>treatment_date</t>
+    <t>treatment dose</t>
+  </si>
+  <si>
+    <t>(Recommended) The dose of the treatment agent used. (Units: picomolar)</t>
+  </si>
+  <si>
+    <t>treatment date</t>
   </si>
   <si>
     <t>(Recommended) The date of the treatment applied.</t>
   </si>
   <si>
-    <t>further_details</t>
+    <t>Further Details</t>
   </si>
   <si>
     <t>(Optional) Reference details related to a sample in form of an uri.</t>
@@ -3375,25 +3360,25 @@
         <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="150" customHeight="1">
@@ -3428,25 +3413,25 @@
         <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +3446,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:K294"/>
+  <dimension ref="K1:K289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4912,31 +4897,6 @@
         <v>570</v>
       </c>
     </row>
-    <row r="290" spans="11:11">
-      <c r="K290" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="291" spans="11:11">
-      <c r="K291" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="292" spans="11:11">
-      <c r="K292" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="293" spans="11:11">
-      <c r="K293" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="294" spans="11:11">
-      <c r="K294" t="s">
-        <v>575</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="589">
   <si>
     <t>alias</t>
   </si>
@@ -835,6 +835,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3319,7 +3331,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3328,7 +3340,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3360,10 +3372,10 @@
         <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>571</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>573</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>575</v>
@@ -3380,8 +3392,14 @@
       <c r="Q1" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="150" customHeight="1">
+      <c r="R1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3413,10 +3431,10 @@
         <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>572</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>574</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>576</v>
@@ -3433,10 +3451,16 @@
       <c r="Q2" s="2" t="s">
         <v>584</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3446,1455 +3470,1455 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:K289"/>
+  <dimension ref="M1:M289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="11:11">
-      <c r="K1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="11:11">
-      <c r="K2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="11:11">
-      <c r="K3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="11:11">
-      <c r="K4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="11:11">
-      <c r="K5" t="s">
+    <row r="1" spans="13:13">
+      <c r="M1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="11:11">
-      <c r="K6" t="s">
+    <row r="2" spans="13:13">
+      <c r="M2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="11:11">
-      <c r="K7" t="s">
+    <row r="3" spans="13:13">
+      <c r="M3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="11:11">
-      <c r="K8" t="s">
+    <row r="4" spans="13:13">
+      <c r="M4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="11:11">
-      <c r="K9" t="s">
+    <row r="5" spans="13:13">
+      <c r="M5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="11:11">
-      <c r="K10" t="s">
+    <row r="6" spans="13:13">
+      <c r="M6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="11:11">
-      <c r="K11" t="s">
+    <row r="7" spans="13:13">
+      <c r="M7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="11:11">
-      <c r="K12" t="s">
+    <row r="8" spans="13:13">
+      <c r="M8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="11:11">
-      <c r="K13" t="s">
+    <row r="9" spans="13:13">
+      <c r="M9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="11:11">
-      <c r="K14" t="s">
+    <row r="10" spans="13:13">
+      <c r="M10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="11:11">
-      <c r="K15" t="s">
+    <row r="11" spans="13:13">
+      <c r="M11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="11:11">
-      <c r="K16" t="s">
+    <row r="12" spans="13:13">
+      <c r="M12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="11:11">
-      <c r="K17" t="s">
+    <row r="13" spans="13:13">
+      <c r="M13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="11:11">
-      <c r="K18" t="s">
+    <row r="14" spans="13:13">
+      <c r="M14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="11:11">
-      <c r="K19" t="s">
+    <row r="15" spans="13:13">
+      <c r="M15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="11:11">
-      <c r="K20" t="s">
+    <row r="16" spans="13:13">
+      <c r="M16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="11:11">
-      <c r="K21" t="s">
+    <row r="17" spans="13:13">
+      <c r="M17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="11:11">
-      <c r="K22" t="s">
+    <row r="18" spans="13:13">
+      <c r="M18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="11:11">
-      <c r="K23" t="s">
+    <row r="19" spans="13:13">
+      <c r="M19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="11:11">
-      <c r="K24" t="s">
+    <row r="20" spans="13:13">
+      <c r="M20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="11:11">
-      <c r="K25" t="s">
+    <row r="21" spans="13:13">
+      <c r="M21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="11:11">
-      <c r="K26" t="s">
+    <row r="22" spans="13:13">
+      <c r="M22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="11:11">
-      <c r="K27" t="s">
+    <row r="23" spans="13:13">
+      <c r="M23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="11:11">
-      <c r="K28" t="s">
+    <row r="24" spans="13:13">
+      <c r="M24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="11:11">
-      <c r="K29" t="s">
+    <row r="25" spans="13:13">
+      <c r="M25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="11:11">
-      <c r="K30" t="s">
+    <row r="26" spans="13:13">
+      <c r="M26" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="11:11">
-      <c r="K31" t="s">
+    <row r="27" spans="13:13">
+      <c r="M27" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="11:11">
-      <c r="K32" t="s">
+    <row r="28" spans="13:13">
+      <c r="M28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
-      <c r="K33" t="s">
+    <row r="29" spans="13:13">
+      <c r="M29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
-      <c r="K34" t="s">
+    <row r="30" spans="13:13">
+      <c r="M30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
-      <c r="K35" t="s">
+    <row r="31" spans="13:13">
+      <c r="M31" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
-      <c r="K36" t="s">
+    <row r="32" spans="13:13">
+      <c r="M32" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
-      <c r="K37" t="s">
+    <row r="33" spans="13:13">
+      <c r="M33" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
-      <c r="K38" t="s">
+    <row r="34" spans="13:13">
+      <c r="M34" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
-      <c r="K39" t="s">
+    <row r="35" spans="13:13">
+      <c r="M35" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
-      <c r="K40" t="s">
+    <row r="36" spans="13:13">
+      <c r="M36" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
-      <c r="K41" t="s">
+    <row r="37" spans="13:13">
+      <c r="M37" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
-      <c r="K42" t="s">
+    <row r="38" spans="13:13">
+      <c r="M38" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
-      <c r="K43" t="s">
+    <row r="39" spans="13:13">
+      <c r="M39" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
-      <c r="K44" t="s">
+    <row r="40" spans="13:13">
+      <c r="M40" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
-      <c r="K45" t="s">
+    <row r="41" spans="13:13">
+      <c r="M41" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="11:11">
-      <c r="K46" t="s">
+    <row r="42" spans="13:13">
+      <c r="M42" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="11:11">
-      <c r="K47" t="s">
+    <row r="43" spans="13:13">
+      <c r="M43" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="11:11">
-      <c r="K48" t="s">
+    <row r="44" spans="13:13">
+      <c r="M44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="11:11">
-      <c r="K49" t="s">
+    <row r="45" spans="13:13">
+      <c r="M45" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="11:11">
-      <c r="K50" t="s">
+    <row r="46" spans="13:13">
+      <c r="M46" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="11:11">
-      <c r="K51" t="s">
+    <row r="47" spans="13:13">
+      <c r="M47" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="11:11">
-      <c r="K52" t="s">
+    <row r="48" spans="13:13">
+      <c r="M48" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="11:11">
-      <c r="K53" t="s">
+    <row r="49" spans="13:13">
+      <c r="M49" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="11:11">
-      <c r="K54" t="s">
+    <row r="50" spans="13:13">
+      <c r="M50" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="11:11">
-      <c r="K55" t="s">
+    <row r="51" spans="13:13">
+      <c r="M51" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="11:11">
-      <c r="K56" t="s">
+    <row r="52" spans="13:13">
+      <c r="M52" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="11:11">
-      <c r="K57" t="s">
+    <row r="53" spans="13:13">
+      <c r="M53" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="58" spans="11:11">
-      <c r="K58" t="s">
+    <row r="54" spans="13:13">
+      <c r="M54" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="11:11">
-      <c r="K59" t="s">
+    <row r="55" spans="13:13">
+      <c r="M55" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="11:11">
-      <c r="K60" t="s">
+    <row r="56" spans="13:13">
+      <c r="M56" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="11:11">
-      <c r="K61" t="s">
+    <row r="57" spans="13:13">
+      <c r="M57" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="11:11">
-      <c r="K62" t="s">
+    <row r="58" spans="13:13">
+      <c r="M58" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="11:11">
-      <c r="K63" t="s">
+    <row r="59" spans="13:13">
+      <c r="M59" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="11:11">
-      <c r="K64" t="s">
+    <row r="60" spans="13:13">
+      <c r="M60" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="11:11">
-      <c r="K65" t="s">
+    <row r="61" spans="13:13">
+      <c r="M61" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="11:11">
-      <c r="K66" t="s">
+    <row r="62" spans="13:13">
+      <c r="M62" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="67" spans="11:11">
-      <c r="K67" t="s">
+    <row r="63" spans="13:13">
+      <c r="M63" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="11:11">
-      <c r="K68" t="s">
+    <row r="64" spans="13:13">
+      <c r="M64" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="11:11">
-      <c r="K69" t="s">
+    <row r="65" spans="13:13">
+      <c r="M65" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="11:11">
-      <c r="K70" t="s">
+    <row r="66" spans="13:13">
+      <c r="M66" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="11:11">
-      <c r="K71" t="s">
+    <row r="67" spans="13:13">
+      <c r="M67" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="11:11">
-      <c r="K72" t="s">
+    <row r="68" spans="13:13">
+      <c r="M68" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="11:11">
-      <c r="K73" t="s">
+    <row r="69" spans="13:13">
+      <c r="M69" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="11:11">
-      <c r="K74" t="s">
+    <row r="70" spans="13:13">
+      <c r="M70" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="11:11">
-      <c r="K75" t="s">
+    <row r="71" spans="13:13">
+      <c r="M71" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="76" spans="11:11">
-      <c r="K76" t="s">
+    <row r="72" spans="13:13">
+      <c r="M72" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="11:11">
-      <c r="K77" t="s">
+    <row r="73" spans="13:13">
+      <c r="M73" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="11:11">
-      <c r="K78" t="s">
+    <row r="74" spans="13:13">
+      <c r="M74" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="11:11">
-      <c r="K79" t="s">
+    <row r="75" spans="13:13">
+      <c r="M75" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="11:11">
-      <c r="K80" t="s">
+    <row r="76" spans="13:13">
+      <c r="M76" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="11:11">
-      <c r="K81" t="s">
+    <row r="77" spans="13:13">
+      <c r="M77" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="11:11">
-      <c r="K82" t="s">
+    <row r="78" spans="13:13">
+      <c r="M78" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="11:11">
-      <c r="K83" t="s">
+    <row r="79" spans="13:13">
+      <c r="M79" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="84" spans="11:11">
-      <c r="K84" t="s">
+    <row r="80" spans="13:13">
+      <c r="M80" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="11:11">
-      <c r="K85" t="s">
+    <row r="81" spans="13:13">
+      <c r="M81" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="11:11">
-      <c r="K86" t="s">
+    <row r="82" spans="13:13">
+      <c r="M82" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="11:11">
-      <c r="K87" t="s">
+    <row r="83" spans="13:13">
+      <c r="M83" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="11:11">
-      <c r="K88" t="s">
+    <row r="84" spans="13:13">
+      <c r="M84" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="89" spans="11:11">
-      <c r="K89" t="s">
+    <row r="85" spans="13:13">
+      <c r="M85" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="90" spans="11:11">
-      <c r="K90" t="s">
+    <row r="86" spans="13:13">
+      <c r="M86" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="91" spans="11:11">
-      <c r="K91" t="s">
+    <row r="87" spans="13:13">
+      <c r="M87" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="92" spans="11:11">
-      <c r="K92" t="s">
+    <row r="88" spans="13:13">
+      <c r="M88" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="11:11">
-      <c r="K93" t="s">
+    <row r="89" spans="13:13">
+      <c r="M89" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="94" spans="11:11">
-      <c r="K94" t="s">
+    <row r="90" spans="13:13">
+      <c r="M90" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="11:11">
-      <c r="K95" t="s">
+    <row r="91" spans="13:13">
+      <c r="M91" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="11:11">
-      <c r="K96" t="s">
+    <row r="92" spans="13:13">
+      <c r="M92" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="97" spans="11:11">
-      <c r="K97" t="s">
+    <row r="93" spans="13:13">
+      <c r="M93" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="98" spans="11:11">
-      <c r="K98" t="s">
+    <row r="94" spans="13:13">
+      <c r="M94" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="99" spans="11:11">
-      <c r="K99" t="s">
+    <row r="95" spans="13:13">
+      <c r="M95" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="100" spans="11:11">
-      <c r="K100" t="s">
+    <row r="96" spans="13:13">
+      <c r="M96" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="11:11">
-      <c r="K101" t="s">
+    <row r="97" spans="13:13">
+      <c r="M97" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="11:11">
-      <c r="K102" t="s">
+    <row r="98" spans="13:13">
+      <c r="M98" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="103" spans="11:11">
-      <c r="K103" t="s">
+    <row r="99" spans="13:13">
+      <c r="M99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="104" spans="11:11">
-      <c r="K104" t="s">
+    <row r="100" spans="13:13">
+      <c r="M100" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="105" spans="11:11">
-      <c r="K105" t="s">
+    <row r="101" spans="13:13">
+      <c r="M101" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="106" spans="11:11">
-      <c r="K106" t="s">
+    <row r="102" spans="13:13">
+      <c r="M102" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="11:11">
-      <c r="K107" t="s">
+    <row r="103" spans="13:13">
+      <c r="M103" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="108" spans="11:11">
-      <c r="K108" t="s">
+    <row r="104" spans="13:13">
+      <c r="M104" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="109" spans="11:11">
-      <c r="K109" t="s">
+    <row r="105" spans="13:13">
+      <c r="M105" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="110" spans="11:11">
-      <c r="K110" t="s">
+    <row r="106" spans="13:13">
+      <c r="M106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="111" spans="11:11">
-      <c r="K111" t="s">
+    <row r="107" spans="13:13">
+      <c r="M107" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="112" spans="11:11">
-      <c r="K112" t="s">
+    <row r="108" spans="13:13">
+      <c r="M108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="11:11">
-      <c r="K113" t="s">
+    <row r="109" spans="13:13">
+      <c r="M109" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="114" spans="11:11">
-      <c r="K114" t="s">
+    <row r="110" spans="13:13">
+      <c r="M110" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="115" spans="11:11">
-      <c r="K115" t="s">
+    <row r="111" spans="13:13">
+      <c r="M111" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="116" spans="11:11">
-      <c r="K116" t="s">
+    <row r="112" spans="13:13">
+      <c r="M112" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="117" spans="11:11">
-      <c r="K117" t="s">
+    <row r="113" spans="13:13">
+      <c r="M113" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="118" spans="11:11">
-      <c r="K118" t="s">
+    <row r="114" spans="13:13">
+      <c r="M114" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="119" spans="11:11">
-      <c r="K119" t="s">
+    <row r="115" spans="13:13">
+      <c r="M115" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="11:11">
-      <c r="K120" t="s">
+    <row r="116" spans="13:13">
+      <c r="M116" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="121" spans="11:11">
-      <c r="K121" t="s">
+    <row r="117" spans="13:13">
+      <c r="M117" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="122" spans="11:11">
-      <c r="K122" t="s">
+    <row r="118" spans="13:13">
+      <c r="M118" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="123" spans="11:11">
-      <c r="K123" t="s">
+    <row r="119" spans="13:13">
+      <c r="M119" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="11:11">
-      <c r="K124" t="s">
+    <row r="120" spans="13:13">
+      <c r="M120" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="125" spans="11:11">
-      <c r="K125" t="s">
+    <row r="121" spans="13:13">
+      <c r="M121" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="126" spans="11:11">
-      <c r="K126" t="s">
+    <row r="122" spans="13:13">
+      <c r="M122" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="127" spans="11:11">
-      <c r="K127" t="s">
+    <row r="123" spans="13:13">
+      <c r="M123" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="128" spans="11:11">
-      <c r="K128" t="s">
+    <row r="124" spans="13:13">
+      <c r="M124" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="129" spans="11:11">
-      <c r="K129" t="s">
+    <row r="125" spans="13:13">
+      <c r="M125" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="130" spans="11:11">
-      <c r="K130" t="s">
+    <row r="126" spans="13:13">
+      <c r="M126" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="131" spans="11:11">
-      <c r="K131" t="s">
+    <row r="127" spans="13:13">
+      <c r="M127" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="132" spans="11:11">
-      <c r="K132" t="s">
+    <row r="128" spans="13:13">
+      <c r="M128" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="133" spans="11:11">
-      <c r="K133" t="s">
+    <row r="129" spans="13:13">
+      <c r="M129" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="134" spans="11:11">
-      <c r="K134" t="s">
+    <row r="130" spans="13:13">
+      <c r="M130" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="135" spans="11:11">
-      <c r="K135" t="s">
+    <row r="131" spans="13:13">
+      <c r="M131" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="136" spans="11:11">
-      <c r="K136" t="s">
+    <row r="132" spans="13:13">
+      <c r="M132" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="137" spans="11:11">
-      <c r="K137" t="s">
+    <row r="133" spans="13:13">
+      <c r="M133" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="11:11">
-      <c r="K138" t="s">
+    <row r="134" spans="13:13">
+      <c r="M134" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="139" spans="11:11">
-      <c r="K139" t="s">
+    <row r="135" spans="13:13">
+      <c r="M135" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="140" spans="11:11">
-      <c r="K140" t="s">
+    <row r="136" spans="13:13">
+      <c r="M136" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="141" spans="11:11">
-      <c r="K141" t="s">
+    <row r="137" spans="13:13">
+      <c r="M137" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="142" spans="11:11">
-      <c r="K142" t="s">
+    <row r="138" spans="13:13">
+      <c r="M138" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="143" spans="11:11">
-      <c r="K143" t="s">
+    <row r="139" spans="13:13">
+      <c r="M139" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="144" spans="11:11">
-      <c r="K144" t="s">
+    <row r="140" spans="13:13">
+      <c r="M140" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="145" spans="11:11">
-      <c r="K145" t="s">
+    <row r="141" spans="13:13">
+      <c r="M141" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="146" spans="11:11">
-      <c r="K146" t="s">
+    <row r="142" spans="13:13">
+      <c r="M142" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="147" spans="11:11">
-      <c r="K147" t="s">
+    <row r="143" spans="13:13">
+      <c r="M143" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="148" spans="11:11">
-      <c r="K148" t="s">
+    <row r="144" spans="13:13">
+      <c r="M144" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="11:11">
-      <c r="K149" t="s">
+    <row r="145" spans="13:13">
+      <c r="M145" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="150" spans="11:11">
-      <c r="K150" t="s">
+    <row r="146" spans="13:13">
+      <c r="M146" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="11:11">
-      <c r="K151" t="s">
+    <row r="147" spans="13:13">
+      <c r="M147" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="152" spans="11:11">
-      <c r="K152" t="s">
+    <row r="148" spans="13:13">
+      <c r="M148" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="153" spans="11:11">
-      <c r="K153" t="s">
+    <row r="149" spans="13:13">
+      <c r="M149" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="154" spans="11:11">
-      <c r="K154" t="s">
+    <row r="150" spans="13:13">
+      <c r="M150" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="155" spans="11:11">
-      <c r="K155" t="s">
+    <row r="151" spans="13:13">
+      <c r="M151" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="156" spans="11:11">
-      <c r="K156" t="s">
+    <row r="152" spans="13:13">
+      <c r="M152" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="157" spans="11:11">
-      <c r="K157" t="s">
+    <row r="153" spans="13:13">
+      <c r="M153" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="158" spans="11:11">
-      <c r="K158" t="s">
+    <row r="154" spans="13:13">
+      <c r="M154" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="159" spans="11:11">
-      <c r="K159" t="s">
+    <row r="155" spans="13:13">
+      <c r="M155" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="160" spans="11:11">
-      <c r="K160" t="s">
+    <row r="156" spans="13:13">
+      <c r="M156" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="161" spans="11:11">
-      <c r="K161" t="s">
+    <row r="157" spans="13:13">
+      <c r="M157" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="162" spans="11:11">
-      <c r="K162" t="s">
+    <row r="158" spans="13:13">
+      <c r="M158" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="163" spans="11:11">
-      <c r="K163" t="s">
+    <row r="159" spans="13:13">
+      <c r="M159" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="164" spans="11:11">
-      <c r="K164" t="s">
+    <row r="160" spans="13:13">
+      <c r="M160" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="165" spans="11:11">
-      <c r="K165" t="s">
+    <row r="161" spans="13:13">
+      <c r="M161" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="166" spans="11:11">
-      <c r="K166" t="s">
+    <row r="162" spans="13:13">
+      <c r="M162" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="167" spans="11:11">
-      <c r="K167" t="s">
+    <row r="163" spans="13:13">
+      <c r="M163" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="168" spans="11:11">
-      <c r="K168" t="s">
+    <row r="164" spans="13:13">
+      <c r="M164" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="169" spans="11:11">
-      <c r="K169" t="s">
+    <row r="165" spans="13:13">
+      <c r="M165" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="170" spans="11:11">
-      <c r="K170" t="s">
+    <row r="166" spans="13:13">
+      <c r="M166" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="11:11">
-      <c r="K171" t="s">
+    <row r="167" spans="13:13">
+      <c r="M167" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="172" spans="11:11">
-      <c r="K172" t="s">
+    <row r="168" spans="13:13">
+      <c r="M168" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="173" spans="11:11">
-      <c r="K173" t="s">
+    <row r="169" spans="13:13">
+      <c r="M169" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="174" spans="11:11">
-      <c r="K174" t="s">
+    <row r="170" spans="13:13">
+      <c r="M170" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="175" spans="11:11">
-      <c r="K175" t="s">
+    <row r="171" spans="13:13">
+      <c r="M171" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="176" spans="11:11">
-      <c r="K176" t="s">
+    <row r="172" spans="13:13">
+      <c r="M172" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="177" spans="11:11">
-      <c r="K177" t="s">
+    <row r="173" spans="13:13">
+      <c r="M173" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="178" spans="11:11">
-      <c r="K178" t="s">
+    <row r="174" spans="13:13">
+      <c r="M174" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="179" spans="11:11">
-      <c r="K179" t="s">
+    <row r="175" spans="13:13">
+      <c r="M175" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="180" spans="11:11">
-      <c r="K180" t="s">
+    <row r="176" spans="13:13">
+      <c r="M176" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="181" spans="11:11">
-      <c r="K181" t="s">
+    <row r="177" spans="13:13">
+      <c r="M177" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="182" spans="11:11">
-      <c r="K182" t="s">
+    <row r="178" spans="13:13">
+      <c r="M178" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="183" spans="11:11">
-      <c r="K183" t="s">
+    <row r="179" spans="13:13">
+      <c r="M179" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="184" spans="11:11">
-      <c r="K184" t="s">
+    <row r="180" spans="13:13">
+      <c r="M180" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="11:11">
-      <c r="K185" t="s">
+    <row r="181" spans="13:13">
+      <c r="M181" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="186" spans="11:11">
-      <c r="K186" t="s">
+    <row r="182" spans="13:13">
+      <c r="M182" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="187" spans="11:11">
-      <c r="K187" t="s">
+    <row r="183" spans="13:13">
+      <c r="M183" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="11:11">
-      <c r="K188" t="s">
+    <row r="184" spans="13:13">
+      <c r="M184" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="189" spans="11:11">
-      <c r="K189" t="s">
+    <row r="185" spans="13:13">
+      <c r="M185" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="190" spans="11:11">
-      <c r="K190" t="s">
+    <row r="186" spans="13:13">
+      <c r="M186" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="191" spans="11:11">
-      <c r="K191" t="s">
+    <row r="187" spans="13:13">
+      <c r="M187" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="192" spans="11:11">
-      <c r="K192" t="s">
+    <row r="188" spans="13:13">
+      <c r="M188" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="193" spans="11:11">
-      <c r="K193" t="s">
+    <row r="189" spans="13:13">
+      <c r="M189" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="194" spans="11:11">
-      <c r="K194" t="s">
+    <row r="190" spans="13:13">
+      <c r="M190" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="195" spans="11:11">
-      <c r="K195" t="s">
+    <row r="191" spans="13:13">
+      <c r="M191" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="196" spans="11:11">
-      <c r="K196" t="s">
+    <row r="192" spans="13:13">
+      <c r="M192" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="197" spans="11:11">
-      <c r="K197" t="s">
+    <row r="193" spans="13:13">
+      <c r="M193" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="198" spans="11:11">
-      <c r="K198" t="s">
+    <row r="194" spans="13:13">
+      <c r="M194" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="199" spans="11:11">
-      <c r="K199" t="s">
+    <row r="195" spans="13:13">
+      <c r="M195" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="200" spans="11:11">
-      <c r="K200" t="s">
+    <row r="196" spans="13:13">
+      <c r="M196" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="11:11">
-      <c r="K201" t="s">
+    <row r="197" spans="13:13">
+      <c r="M197" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="202" spans="11:11">
-      <c r="K202" t="s">
+    <row r="198" spans="13:13">
+      <c r="M198" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="203" spans="11:11">
-      <c r="K203" t="s">
+    <row r="199" spans="13:13">
+      <c r="M199" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="11:11">
-      <c r="K204" t="s">
+    <row r="200" spans="13:13">
+      <c r="M200" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="205" spans="11:11">
-      <c r="K205" t="s">
+    <row r="201" spans="13:13">
+      <c r="M201" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="11:11">
-      <c r="K206" t="s">
+    <row r="202" spans="13:13">
+      <c r="M202" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="11:11">
-      <c r="K207" t="s">
+    <row r="203" spans="13:13">
+      <c r="M203" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="11:11">
-      <c r="K208" t="s">
+    <row r="204" spans="13:13">
+      <c r="M204" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="209" spans="11:11">
-      <c r="K209" t="s">
+    <row r="205" spans="13:13">
+      <c r="M205" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="210" spans="11:11">
-      <c r="K210" t="s">
+    <row r="206" spans="13:13">
+      <c r="M206" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="211" spans="11:11">
-      <c r="K211" t="s">
+    <row r="207" spans="13:13">
+      <c r="M207" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="11:11">
-      <c r="K212" t="s">
+    <row r="208" spans="13:13">
+      <c r="M208" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="213" spans="11:11">
-      <c r="K213" t="s">
+    <row r="209" spans="13:13">
+      <c r="M209" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="214" spans="11:11">
-      <c r="K214" t="s">
+    <row r="210" spans="13:13">
+      <c r="M210" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="215" spans="11:11">
-      <c r="K215" t="s">
+    <row r="211" spans="13:13">
+      <c r="M211" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="216" spans="11:11">
-      <c r="K216" t="s">
+    <row r="212" spans="13:13">
+      <c r="M212" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="217" spans="11:11">
-      <c r="K217" t="s">
+    <row r="213" spans="13:13">
+      <c r="M213" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="11:11">
-      <c r="K218" t="s">
+    <row r="214" spans="13:13">
+      <c r="M214" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="11:11">
-      <c r="K219" t="s">
+    <row r="215" spans="13:13">
+      <c r="M215" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="11:11">
-      <c r="K220" t="s">
+    <row r="216" spans="13:13">
+      <c r="M216" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="221" spans="11:11">
-      <c r="K221" t="s">
+    <row r="217" spans="13:13">
+      <c r="M217" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="222" spans="11:11">
-      <c r="K222" t="s">
+    <row r="218" spans="13:13">
+      <c r="M218" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="223" spans="11:11">
-      <c r="K223" t="s">
+    <row r="219" spans="13:13">
+      <c r="M219" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="224" spans="11:11">
-      <c r="K224" t="s">
+    <row r="220" spans="13:13">
+      <c r="M220" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="225" spans="11:11">
-      <c r="K225" t="s">
+    <row r="221" spans="13:13">
+      <c r="M221" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="226" spans="11:11">
-      <c r="K226" t="s">
+    <row r="222" spans="13:13">
+      <c r="M222" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="227" spans="11:11">
-      <c r="K227" t="s">
+    <row r="223" spans="13:13">
+      <c r="M223" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="228" spans="11:11">
-      <c r="K228" t="s">
+    <row r="224" spans="13:13">
+      <c r="M224" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="229" spans="11:11">
-      <c r="K229" t="s">
+    <row r="225" spans="13:13">
+      <c r="M225" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="230" spans="11:11">
-      <c r="K230" t="s">
+    <row r="226" spans="13:13">
+      <c r="M226" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="231" spans="11:11">
-      <c r="K231" t="s">
+    <row r="227" spans="13:13">
+      <c r="M227" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="232" spans="11:11">
-      <c r="K232" t="s">
+    <row r="228" spans="13:13">
+      <c r="M228" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="233" spans="11:11">
-      <c r="K233" t="s">
+    <row r="229" spans="13:13">
+      <c r="M229" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="234" spans="11:11">
-      <c r="K234" t="s">
+    <row r="230" spans="13:13">
+      <c r="M230" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="235" spans="11:11">
-      <c r="K235" t="s">
+    <row r="231" spans="13:13">
+      <c r="M231" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="236" spans="11:11">
-      <c r="K236" t="s">
+    <row r="232" spans="13:13">
+      <c r="M232" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="237" spans="11:11">
-      <c r="K237" t="s">
+    <row r="233" spans="13:13">
+      <c r="M233" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="238" spans="11:11">
-      <c r="K238" t="s">
+    <row r="234" spans="13:13">
+      <c r="M234" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="239" spans="11:11">
-      <c r="K239" t="s">
+    <row r="235" spans="13:13">
+      <c r="M235" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="240" spans="11:11">
-      <c r="K240" t="s">
+    <row r="236" spans="13:13">
+      <c r="M236" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="241" spans="11:11">
-      <c r="K241" t="s">
+    <row r="237" spans="13:13">
+      <c r="M237" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="242" spans="11:11">
-      <c r="K242" t="s">
+    <row r="238" spans="13:13">
+      <c r="M238" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="243" spans="11:11">
-      <c r="K243" t="s">
+    <row r="239" spans="13:13">
+      <c r="M239" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="244" spans="11:11">
-      <c r="K244" t="s">
+    <row r="240" spans="13:13">
+      <c r="M240" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="245" spans="11:11">
-      <c r="K245" t="s">
+    <row r="241" spans="13:13">
+      <c r="M241" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="246" spans="11:11">
-      <c r="K246" t="s">
+    <row r="242" spans="13:13">
+      <c r="M242" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="247" spans="11:11">
-      <c r="K247" t="s">
+    <row r="243" spans="13:13">
+      <c r="M243" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="248" spans="11:11">
-      <c r="K248" t="s">
+    <row r="244" spans="13:13">
+      <c r="M244" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="11:11">
-      <c r="K249" t="s">
+    <row r="245" spans="13:13">
+      <c r="M245" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="250" spans="11:11">
-      <c r="K250" t="s">
+    <row r="246" spans="13:13">
+      <c r="M246" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="251" spans="11:11">
-      <c r="K251" t="s">
+    <row r="247" spans="13:13">
+      <c r="M247" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="252" spans="11:11">
-      <c r="K252" t="s">
+    <row r="248" spans="13:13">
+      <c r="M248" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="253" spans="11:11">
-      <c r="K253" t="s">
+    <row r="249" spans="13:13">
+      <c r="M249" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="11:11">
-      <c r="K254" t="s">
+    <row r="250" spans="13:13">
+      <c r="M250" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="255" spans="11:11">
-      <c r="K255" t="s">
+    <row r="251" spans="13:13">
+      <c r="M251" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="256" spans="11:11">
-      <c r="K256" t="s">
+    <row r="252" spans="13:13">
+      <c r="M252" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="257" spans="11:11">
-      <c r="K257" t="s">
+    <row r="253" spans="13:13">
+      <c r="M253" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="258" spans="11:11">
-      <c r="K258" t="s">
+    <row r="254" spans="13:13">
+      <c r="M254" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="259" spans="11:11">
-      <c r="K259" t="s">
+    <row r="255" spans="13:13">
+      <c r="M255" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="260" spans="11:11">
-      <c r="K260" t="s">
+    <row r="256" spans="13:13">
+      <c r="M256" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="261" spans="11:11">
-      <c r="K261" t="s">
+    <row r="257" spans="13:13">
+      <c r="M257" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="262" spans="11:11">
-      <c r="K262" t="s">
+    <row r="258" spans="13:13">
+      <c r="M258" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="263" spans="11:11">
-      <c r="K263" t="s">
+    <row r="259" spans="13:13">
+      <c r="M259" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="264" spans="11:11">
-      <c r="K264" t="s">
+    <row r="260" spans="13:13">
+      <c r="M260" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="265" spans="11:11">
-      <c r="K265" t="s">
+    <row r="261" spans="13:13">
+      <c r="M261" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="266" spans="11:11">
-      <c r="K266" t="s">
+    <row r="262" spans="13:13">
+      <c r="M262" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="267" spans="11:11">
-      <c r="K267" t="s">
+    <row r="263" spans="13:13">
+      <c r="M263" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="268" spans="11:11">
-      <c r="K268" t="s">
+    <row r="264" spans="13:13">
+      <c r="M264" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="269" spans="11:11">
-      <c r="K269" t="s">
+    <row r="265" spans="13:13">
+      <c r="M265" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="270" spans="11:11">
-      <c r="K270" t="s">
+    <row r="266" spans="13:13">
+      <c r="M266" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="271" spans="11:11">
-      <c r="K271" t="s">
+    <row r="267" spans="13:13">
+      <c r="M267" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="272" spans="11:11">
-      <c r="K272" t="s">
+    <row r="268" spans="13:13">
+      <c r="M268" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="273" spans="11:11">
-      <c r="K273" t="s">
+    <row r="269" spans="13:13">
+      <c r="M269" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="274" spans="11:11">
-      <c r="K274" t="s">
+    <row r="270" spans="13:13">
+      <c r="M270" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="275" spans="11:11">
-      <c r="K275" t="s">
+    <row r="271" spans="13:13">
+      <c r="M271" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="276" spans="11:11">
-      <c r="K276" t="s">
+    <row r="272" spans="13:13">
+      <c r="M272" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="277" spans="11:11">
-      <c r="K277" t="s">
+    <row r="273" spans="13:13">
+      <c r="M273" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="278" spans="11:11">
-      <c r="K278" t="s">
+    <row r="274" spans="13:13">
+      <c r="M274" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="279" spans="11:11">
-      <c r="K279" t="s">
+    <row r="275" spans="13:13">
+      <c r="M275" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="280" spans="11:11">
-      <c r="K280" t="s">
+    <row r="276" spans="13:13">
+      <c r="M276" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="281" spans="11:11">
-      <c r="K281" t="s">
+    <row r="277" spans="13:13">
+      <c r="M277" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="282" spans="11:11">
-      <c r="K282" t="s">
+    <row r="278" spans="13:13">
+      <c r="M278" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="283" spans="11:11">
-      <c r="K283" t="s">
+    <row r="279" spans="13:13">
+      <c r="M279" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="284" spans="11:11">
-      <c r="K284" t="s">
+    <row r="280" spans="13:13">
+      <c r="M280" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="285" spans="11:11">
-      <c r="K285" t="s">
+    <row r="281" spans="13:13">
+      <c r="M281" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="286" spans="11:11">
-      <c r="K286" t="s">
+    <row r="282" spans="13:13">
+      <c r="M282" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="287" spans="11:11">
-      <c r="K287" t="s">
+    <row r="283" spans="13:13">
+      <c r="M283" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="288" spans="11:11">
-      <c r="K288" t="s">
+    <row r="284" spans="13:13">
+      <c r="M284" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="289" spans="11:11">
-      <c r="K289" t="s">
+    <row r="285" spans="13:13">
+      <c r="M285" t="s">
         <v>570</v>
+      </c>
+    </row>
+    <row r="286" spans="13:13">
+      <c r="M286" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="287" spans="13:13">
+      <c r="M287" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="288" spans="13:13">
+      <c r="M288" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="289" spans="13:13">
+      <c r="M289" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="594">
   <si>
     <t>alias</t>
   </si>
@@ -1104,9 +1104,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1125,6 +1122,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1326,6 +1326,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1335,9 +1338,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1377,7 +1377,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1446,6 +1446,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1521,6 +1524,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1542,6 +1548,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1587,6 +1596,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1599,6 +1611,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1608,9 +1623,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1635,6 +1647,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1695,12 +1710,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1785,7 +1800,7 @@
     <t>treatment dose</t>
   </si>
   <si>
-    <t>(Recommended) The dose of the treatment agent used. (Units: picomolar)</t>
+    <t>(Recommended) The dose of the treatment agent used. (Units: femtomolar, nanomolar, picomolar, micromolar, millimolar, molar)</t>
   </si>
   <si>
     <t>treatment date</t>
@@ -3378,25 +3393,25 @@
         <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="150" customHeight="1">
@@ -3437,25 +3452,25 @@
         <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -3470,7 +3485,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="M1:M289"/>
+  <dimension ref="M1:M294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4921,6 +4936,31 @@
         <v>574</v>
       </c>
     </row>
+    <row r="290" spans="13:13">
+      <c r="M290" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="291" spans="13:13">
+      <c r="M291" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="292" spans="13:13">
+      <c r="M292" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="293" spans="13:13">
+      <c r="M293" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="294" spans="13:13">
+      <c r="M294" t="s">
+        <v>579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000034/metadata_template_ERC000034.xlsx
+++ b/templates/ERC000034/metadata_template_ERC000034.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="594">
   <si>
     <t>alias</t>
   </si>
@@ -1104,9 +1104,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1125,6 +1122,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1326,6 +1326,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1335,9 +1338,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1377,7 +1377,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1446,6 +1446,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1521,6 +1524,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1542,6 +1548,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1587,6 +1596,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1599,6 +1611,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1608,9 +1623,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1635,6 +1647,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1695,12 +1710,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1785,7 +1800,7 @@
     <t>treatment dose</t>
   </si>
   <si>
-    <t>(Recommended) The dose of the treatment agent used. (Units: picomolar)</t>
+    <t>(Recommended) The dose of the treatment agent used. (Units: molar)</t>
   </si>
   <si>
     <t>treatment date</t>
@@ -3378,25 +3393,25 @@
         <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="150" customHeight="1">
@@ -3437,25 +3452,25 @@
         <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -3470,7 +3485,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="M1:M289"/>
+  <dimension ref="M1:M294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4921,6 +4936,31 @@
         <v>574</v>
       </c>
     </row>
+    <row r="290" spans="13:13">
+      <c r="M290" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="291" spans="13:13">
+      <c r="M291" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="292" spans="13:13">
+      <c r="M292" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="293" spans="13:13">
+      <c r="M293" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="294" spans="13:13">
+      <c r="M294" t="s">
+        <v>579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
